--- a/Tabulados/tasa_infromalidad-entidad.xlsx
+++ b/Tabulados/tasa_infromalidad-entidad.xlsx
@@ -135,12 +135,6 @@
     <t>IV Trim</t>
   </si>
   <si>
-    <t>II Trim</t>
-  </si>
-  <si>
-    <t>IV trimestre 2012 - II trimestre 2022</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -162,6 +156,12 @@
   </si>
   <si>
     <t>Tasa de informalidad laboral por entidad federativa</t>
+  </si>
+  <si>
+    <t>III Trim</t>
+  </si>
+  <si>
+    <t>IV trimestre 2012 - III trimestre 2022</t>
   </si>
 </sst>
 </file>
@@ -1009,21 +1009,6 @@
     <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1040,6 +1025,21 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1406,7 +1406,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
@@ -1418,7 +1418,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1466,7 +1466,7 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="32">
@@ -1507,7 +1507,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="33" t="s">
         <v>37</v>
       </c>
@@ -1539,14 +1539,14 @@
         <v>37</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="7">
@@ -1559,7 +1559,7 @@
         <v>44.9</v>
       </c>
       <c r="E6" s="6">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="F6" s="6">
         <v>43.8</v>
@@ -1579,15 +1579,15 @@
       <c r="K6" s="6">
         <v>40.6</v>
       </c>
-      <c r="L6" s="44">
-        <v>39.700000000000003</v>
+      <c r="L6" s="39">
+        <v>40.799999999999997</v>
       </c>
       <c r="M6" s="10">
         <v>40.4</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="7">
@@ -1600,7 +1600,7 @@
         <v>39.299999999999997</v>
       </c>
       <c r="E7" s="6">
-        <v>41.5</v>
+        <v>41.1</v>
       </c>
       <c r="F7" s="6">
         <v>37.9</v>
@@ -1620,15 +1620,15 @@
       <c r="K7" s="6">
         <v>39.9</v>
       </c>
-      <c r="L7" s="44">
-        <v>39.5</v>
+      <c r="L7" s="39">
+        <v>37.700000000000003</v>
       </c>
       <c r="M7" s="10">
-        <v>39.5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="7">
@@ -1641,7 +1641,7 @@
         <v>41.3</v>
       </c>
       <c r="E8" s="6">
-        <v>41.1</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="F8" s="6">
         <v>37.799999999999997</v>
@@ -1661,15 +1661,15 @@
       <c r="K8" s="6">
         <v>36.799999999999997</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="39">
         <v>36.700000000000003</v>
       </c>
       <c r="M8" s="10">
-        <v>38.6</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="7">
@@ -1682,7 +1682,7 @@
         <v>61.1</v>
       </c>
       <c r="E9" s="6">
-        <v>62.3</v>
+        <v>62.2</v>
       </c>
       <c r="F9" s="6">
         <v>62.4</v>
@@ -1702,15 +1702,15 @@
       <c r="K9" s="6">
         <v>60.9</v>
       </c>
-      <c r="L9" s="44">
-        <v>63.7</v>
+      <c r="L9" s="39">
+        <v>62.6</v>
       </c>
       <c r="M9" s="10">
         <v>62.3</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="34" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="7">
@@ -1723,7 +1723,7 @@
         <v>35.200000000000003</v>
       </c>
       <c r="E10" s="6">
-        <v>37</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="F10" s="6">
         <v>36.9</v>
@@ -1743,15 +1743,15 @@
       <c r="K10" s="6">
         <v>35.4</v>
       </c>
-      <c r="L10" s="44">
-        <v>36.5</v>
+      <c r="L10" s="39">
+        <v>36</v>
       </c>
       <c r="M10" s="10">
-        <v>35.4</v>
+        <v>34.700000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="7">
@@ -1764,7 +1764,7 @@
         <v>54.1</v>
       </c>
       <c r="E11" s="6">
-        <v>54.1</v>
+        <v>53.7</v>
       </c>
       <c r="F11" s="6">
         <v>52</v>
@@ -1784,15 +1784,15 @@
       <c r="K11" s="6">
         <v>47.6</v>
       </c>
-      <c r="L11" s="44">
-        <v>46.9</v>
+      <c r="L11" s="39">
+        <v>49.3</v>
       </c>
       <c r="M11" s="10">
-        <v>49.1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="7">
@@ -1805,7 +1805,7 @@
         <v>78.599999999999994</v>
       </c>
       <c r="E12" s="6">
-        <v>78.900000000000006</v>
+        <v>79.2</v>
       </c>
       <c r="F12" s="6">
         <v>80</v>
@@ -1825,15 +1825,15 @@
       <c r="K12" s="6">
         <v>73.400000000000006</v>
       </c>
-      <c r="L12" s="44">
-        <v>76.599999999999994</v>
+      <c r="L12" s="39">
+        <v>78</v>
       </c>
       <c r="M12" s="10">
-        <v>76.2</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="7">
@@ -1846,7 +1846,7 @@
         <v>38.4</v>
       </c>
       <c r="E13" s="6">
-        <v>38.299999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="F13" s="6">
         <v>34.6</v>
@@ -1866,15 +1866,15 @@
       <c r="K13" s="6">
         <v>36.9</v>
       </c>
-      <c r="L13" s="44">
-        <v>36.200000000000003</v>
+      <c r="L13" s="39">
+        <v>37.4</v>
       </c>
       <c r="M13" s="10">
-        <v>36.6</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="7">
@@ -1887,7 +1887,7 @@
         <v>50.6</v>
       </c>
       <c r="E14" s="6">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="F14" s="6">
         <v>48.4</v>
@@ -1907,15 +1907,15 @@
       <c r="K14" s="6">
         <v>48</v>
       </c>
-      <c r="L14" s="44">
-        <v>47.1</v>
+      <c r="L14" s="39">
+        <v>49.3</v>
       </c>
       <c r="M14" s="10">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="7">
@@ -1928,7 +1928,7 @@
         <v>56.1</v>
       </c>
       <c r="E15" s="6">
-        <v>56.2</v>
+        <v>55.7</v>
       </c>
       <c r="F15" s="6">
         <v>51.8</v>
@@ -1948,15 +1948,15 @@
       <c r="K15" s="6">
         <v>50.5</v>
       </c>
-      <c r="L15" s="44">
-        <v>52.7</v>
+      <c r="L15" s="39">
+        <v>51.9</v>
       </c>
       <c r="M15" s="10">
-        <v>50.2</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="7">
@@ -1969,7 +1969,7 @@
         <v>58.8</v>
       </c>
       <c r="E16" s="6">
-        <v>58.4</v>
+        <v>58</v>
       </c>
       <c r="F16" s="6">
         <v>56.6</v>
@@ -1989,15 +1989,15 @@
       <c r="K16" s="6">
         <v>55.1</v>
       </c>
-      <c r="L16" s="44">
-        <v>55.5</v>
+      <c r="L16" s="39">
+        <v>56.6</v>
       </c>
       <c r="M16" s="10">
-        <v>56.1</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="7">
@@ -2030,15 +2030,15 @@
       <c r="K17" s="6">
         <v>78.8</v>
       </c>
-      <c r="L17" s="44">
-        <v>75.5</v>
+      <c r="L17" s="39">
+        <v>78.2</v>
       </c>
       <c r="M17" s="10">
-        <v>79.7</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="7">
@@ -2051,7 +2051,7 @@
         <v>71.7</v>
       </c>
       <c r="E18" s="6">
-        <v>72.2</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="F18" s="6">
         <v>73.099999999999994</v>
@@ -2071,15 +2071,15 @@
       <c r="K18" s="6">
         <v>72</v>
       </c>
-      <c r="L18" s="44">
-        <v>73.599999999999994</v>
+      <c r="L18" s="39">
+        <v>73.400000000000006</v>
       </c>
       <c r="M18" s="10">
-        <v>72.7</v>
+        <v>72.900000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="8">
@@ -2092,7 +2092,7 @@
         <v>52.4</v>
       </c>
       <c r="E19" s="9">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="F19" s="9">
         <v>49.9</v>
@@ -2112,15 +2112,15 @@
       <c r="K19" s="9">
         <v>46.8</v>
       </c>
-      <c r="L19" s="45">
-        <v>47.8</v>
+      <c r="L19" s="40">
+        <v>47</v>
       </c>
       <c r="M19" s="11">
-        <v>47.3</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="7">
@@ -2133,7 +2133,7 @@
         <v>59.4</v>
       </c>
       <c r="E20" s="6">
-        <v>59.6</v>
+        <v>60.2</v>
       </c>
       <c r="F20" s="6">
         <v>58</v>
@@ -2153,15 +2153,15 @@
       <c r="K20" s="6">
         <v>56.4</v>
       </c>
-      <c r="L20" s="44">
-        <v>57.1</v>
+      <c r="L20" s="39">
+        <v>57.7</v>
       </c>
       <c r="M20" s="10">
-        <v>56</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="7">
@@ -2174,7 +2174,7 @@
         <v>71.8</v>
       </c>
       <c r="E21" s="6">
-        <v>70.900000000000006</v>
+        <v>70.3</v>
       </c>
       <c r="F21" s="6">
         <v>71.2</v>
@@ -2194,15 +2194,15 @@
       <c r="K21" s="6">
         <v>66.599999999999994</v>
       </c>
-      <c r="L21" s="44">
-        <v>66.7</v>
+      <c r="L21" s="39">
+        <v>64.3</v>
       </c>
       <c r="M21" s="10">
-        <v>65.8</v>
+        <v>67.900000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="7">
@@ -2215,7 +2215,7 @@
         <v>65.7</v>
       </c>
       <c r="E22" s="6">
-        <v>67.599999999999994</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="F22" s="6">
         <v>68.599999999999994</v>
@@ -2235,15 +2235,15 @@
       <c r="K22" s="6">
         <v>66.900000000000006</v>
       </c>
-      <c r="L22" s="44">
-        <v>66.900000000000006</v>
+      <c r="L22" s="39">
+        <v>67.2</v>
       </c>
       <c r="M22" s="10">
-        <v>63.7</v>
+        <v>64.099999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="7">
@@ -2256,7 +2256,7 @@
         <v>63.3</v>
       </c>
       <c r="E23" s="6">
-        <v>62.9</v>
+        <v>62.8</v>
       </c>
       <c r="F23" s="6">
         <v>63.4</v>
@@ -2276,15 +2276,15 @@
       <c r="K23" s="6">
         <v>60</v>
       </c>
-      <c r="L23" s="44">
-        <v>58.6</v>
+      <c r="L23" s="39">
+        <v>60.8</v>
       </c>
       <c r="M23" s="10">
-        <v>59.4</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="7">
@@ -2297,7 +2297,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="E24" s="6">
-        <v>36.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="F24" s="6">
         <v>37.299999999999997</v>
@@ -2317,15 +2317,15 @@
       <c r="K24" s="6">
         <v>36.700000000000003</v>
       </c>
-      <c r="L24" s="44">
-        <v>37.700000000000003</v>
+      <c r="L24" s="39">
+        <v>37.1</v>
       </c>
       <c r="M24" s="10">
-        <v>37.700000000000003</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="7">
@@ -2358,15 +2358,15 @@
       <c r="K25" s="6">
         <v>81.8</v>
       </c>
-      <c r="L25" s="44">
+      <c r="L25" s="39">
         <v>80.7</v>
       </c>
       <c r="M25" s="10">
-        <v>80.5</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="7">
@@ -2379,7 +2379,7 @@
         <v>71.8</v>
       </c>
       <c r="E26" s="6">
-        <v>74.400000000000006</v>
+        <v>74.5</v>
       </c>
       <c r="F26" s="6">
         <v>74.099999999999994</v>
@@ -2399,15 +2399,15 @@
       <c r="K26" s="6">
         <v>70.8</v>
       </c>
-      <c r="L26" s="44">
-        <v>72.400000000000006</v>
+      <c r="L26" s="39">
+        <v>71.400000000000006</v>
       </c>
       <c r="M26" s="10">
-        <v>72.8</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="7">
@@ -2420,7 +2420,7 @@
         <v>44.9</v>
       </c>
       <c r="E27" s="6">
-        <v>45.2</v>
+        <v>44.7</v>
       </c>
       <c r="F27" s="6">
         <v>43.5</v>
@@ -2440,15 +2440,15 @@
       <c r="K27" s="6">
         <v>43.6</v>
       </c>
-      <c r="L27" s="44">
-        <v>42.5</v>
+      <c r="L27" s="39">
+        <v>43.8</v>
       </c>
       <c r="M27" s="10">
-        <v>42.7</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="7">
@@ -2461,7 +2461,7 @@
         <v>47</v>
       </c>
       <c r="E28" s="6">
-        <v>48.6</v>
+        <v>47.7</v>
       </c>
       <c r="F28" s="6">
         <v>48.1</v>
@@ -2481,15 +2481,15 @@
       <c r="K28" s="6">
         <v>47.2</v>
       </c>
-      <c r="L28" s="44">
-        <v>49.6</v>
+      <c r="L28" s="39">
+        <v>46.5</v>
       </c>
       <c r="M28" s="10">
-        <v>47.4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="34" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="7">
@@ -2502,7 +2502,7 @@
         <v>58.2</v>
       </c>
       <c r="E29" s="6">
-        <v>58.2</v>
+        <v>57.3</v>
       </c>
       <c r="F29" s="6">
         <v>57.1</v>
@@ -2522,15 +2522,15 @@
       <c r="K29" s="6">
         <v>55.5</v>
       </c>
-      <c r="L29" s="44">
-        <v>58.3</v>
+      <c r="L29" s="39">
+        <v>57.5</v>
       </c>
       <c r="M29" s="10">
-        <v>54.1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="7">
@@ -2543,7 +2543,7 @@
         <v>51.3</v>
       </c>
       <c r="E30" s="6">
-        <v>51.9</v>
+        <v>51.2</v>
       </c>
       <c r="F30" s="6">
         <v>50.2</v>
@@ -2563,15 +2563,15 @@
       <c r="K30" s="6">
         <v>48.7</v>
       </c>
-      <c r="L30" s="44">
-        <v>47.2</v>
+      <c r="L30" s="39">
+        <v>48.2</v>
       </c>
       <c r="M30" s="10">
-        <v>49.3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="7">
@@ -2584,7 +2584,7 @@
         <v>44</v>
       </c>
       <c r="E31" s="6">
-        <v>46.7</v>
+        <v>46.1</v>
       </c>
       <c r="F31" s="6">
         <v>44.2</v>
@@ -2604,15 +2604,15 @@
       <c r="K31" s="6">
         <v>41.2</v>
       </c>
-      <c r="L31" s="44">
-        <v>42.2</v>
+      <c r="L31" s="39">
+        <v>41.1</v>
       </c>
       <c r="M31" s="10">
-        <v>40.700000000000003</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="7">
@@ -2625,7 +2625,7 @@
         <v>63.4</v>
       </c>
       <c r="E32" s="6">
-        <v>64.599999999999994</v>
+        <v>65</v>
       </c>
       <c r="F32" s="6">
         <v>67.400000000000006</v>
@@ -2645,15 +2645,15 @@
       <c r="K32" s="6">
         <v>65.2</v>
       </c>
-      <c r="L32" s="44">
-        <v>65.099999999999994</v>
+      <c r="L32" s="39">
+        <v>62.4</v>
       </c>
       <c r="M32" s="10">
-        <v>63</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="7">
@@ -2666,7 +2666,7 @@
         <v>46.1</v>
       </c>
       <c r="E33" s="6">
-        <v>47.9</v>
+        <v>47.2</v>
       </c>
       <c r="F33" s="6">
         <v>46.4</v>
@@ -2686,15 +2686,15 @@
       <c r="K33" s="6">
         <v>45.5</v>
       </c>
-      <c r="L33" s="44">
-        <v>45.2</v>
+      <c r="L33" s="39">
+        <v>45.9</v>
       </c>
       <c r="M33" s="10">
-        <v>45.7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="34" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="7">
@@ -2727,15 +2727,15 @@
       <c r="K34" s="6">
         <v>73.2</v>
       </c>
-      <c r="L34" s="44">
-        <v>72</v>
+      <c r="L34" s="39">
+        <v>71.8</v>
       </c>
       <c r="M34" s="10">
-        <v>72.3</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="7">
@@ -2748,7 +2748,7 @@
         <v>68.5</v>
       </c>
       <c r="E35" s="6">
-        <v>68.7</v>
+        <v>69</v>
       </c>
       <c r="F35" s="6">
         <v>68.7</v>
@@ -2768,15 +2768,15 @@
       <c r="K35" s="6">
         <v>71.8</v>
       </c>
-      <c r="L35" s="44">
-        <v>69.7</v>
+      <c r="L35" s="39">
+        <v>71.5</v>
       </c>
       <c r="M35" s="10">
-        <v>67.5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="7">
@@ -2789,7 +2789,7 @@
         <v>62.4</v>
       </c>
       <c r="E36" s="6">
-        <v>63.1</v>
+        <v>62.8</v>
       </c>
       <c r="F36" s="6">
         <v>61.9</v>
@@ -2809,15 +2809,15 @@
       <c r="K36" s="6">
         <v>62.1</v>
       </c>
-      <c r="L36" s="44">
-        <v>61.4</v>
+      <c r="L36" s="39">
+        <v>61</v>
       </c>
       <c r="M36" s="10">
-        <v>61.7</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="7">
@@ -2830,7 +2830,7 @@
         <v>66.3</v>
       </c>
       <c r="E37" s="6">
-        <v>65.5</v>
+        <v>64.7</v>
       </c>
       <c r="F37" s="6">
         <v>62.3</v>
@@ -2850,52 +2850,52 @@
       <c r="K37" s="6">
         <v>60.7</v>
       </c>
-      <c r="L37" s="44">
-        <v>61.8</v>
+      <c r="L37" s="39">
+        <v>62</v>
       </c>
       <c r="M37" s="10">
-        <v>61.6</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B38" s="37">
         <v>59.6</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="37">
         <v>58.6</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="37">
         <v>57.9</v>
       </c>
-      <c r="E38" s="42">
-        <v>58.2</v>
-      </c>
-      <c r="F38" s="42">
+      <c r="E38" s="37">
+        <v>58</v>
+      </c>
+      <c r="F38" s="37">
         <v>57.1</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G38" s="37">
         <v>56.9</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="37">
         <v>56.5</v>
       </c>
-      <c r="I38" s="42">
+      <c r="I38" s="37">
         <v>56.1</v>
       </c>
-      <c r="J38" s="42">
+      <c r="J38" s="37">
         <v>55.4</v>
       </c>
-      <c r="K38" s="42">
+      <c r="K38" s="37">
         <v>55.8</v>
       </c>
-      <c r="L38" s="46">
-        <v>56.2</v>
-      </c>
-      <c r="M38" s="43">
-        <v>55.7</v>
+      <c r="L38" s="41">
+        <v>56.3</v>
+      </c>
+      <c r="M38" s="38">
+        <v>55.6</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="15" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -2918,59 +2918,59 @@
       <c r="O39" s="20"/>
     </row>
     <row r="40" spans="1:15" s="16" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
       <c r="L40" s="30"/>
       <c r="M40" s="27"/>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
     </row>
     <row r="41" spans="1:15" s="17" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
       <c r="L41" s="31"/>
       <c r="M41" s="28"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
     </row>
     <row r="42" spans="1:15" s="18" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
+      <c r="A42" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
     </row>
     <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K43" s="12"/>

--- a/Tabulados/tasa_infromalidad-entidad.xlsx
+++ b/Tabulados/tasa_infromalidad-entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -158,10 +158,7 @@
     <t>Tasa de informalidad laboral por entidad federativa</t>
   </si>
   <si>
-    <t>III Trim</t>
-  </si>
-  <si>
-    <t>IV trimestre 2012 - III trimestre 2022</t>
+    <t>IV trimestre 2012 - IV trimestre 2022</t>
   </si>
 </sst>
 </file>
@@ -607,18 +604,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -631,19 +619,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -887,9 +862,9 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -897,23 +872,23 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -928,7 +903,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -951,17 +926,17 @@
     <xf numFmtId="164" fontId="21" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -973,16 +948,16 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -994,47 +969,31 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="39" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="39" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="39" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1403,20 +1362,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.125" style="3" customWidth="1"/>
-    <col min="2" max="13" width="9.5" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="11.375" style="3"/>
+    <col min="2" max="12" width="9.5" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1431,11 +1390,10 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1448,9 +1406,8 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1463,13 +1420,12 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="29">
         <v>2012</v>
       </c>
       <c r="C4" s="22">
@@ -1499,16 +1455,13 @@
       <c r="K4" s="22">
         <v>2021</v>
       </c>
-      <c r="L4" s="32">
-        <v>2021</v>
-      </c>
-      <c r="M4" s="23">
+      <c r="L4" s="23">
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="33" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="30" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="24" t="s">
@@ -1538,15 +1491,12 @@
       <c r="K5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="L5" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="7">
@@ -1579,15 +1529,12 @@
       <c r="K6" s="6">
         <v>40.6</v>
       </c>
-      <c r="L6" s="39">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="M6" s="10">
-        <v>40.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="L6" s="10">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="7">
@@ -1620,15 +1567,12 @@
       <c r="K7" s="6">
         <v>39.9</v>
       </c>
-      <c r="L7" s="39">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="M7" s="10">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="L7" s="10">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="7">
@@ -1661,15 +1605,12 @@
       <c r="K8" s="6">
         <v>36.799999999999997</v>
       </c>
-      <c r="L8" s="39">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="M8" s="10">
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="L8" s="10">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="7">
@@ -1702,15 +1643,12 @@
       <c r="K9" s="6">
         <v>60.9</v>
       </c>
-      <c r="L9" s="39">
-        <v>62.6</v>
-      </c>
-      <c r="M9" s="10">
-        <v>62.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="L9" s="10">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="7">
@@ -1743,15 +1681,12 @@
       <c r="K10" s="6">
         <v>35.4</v>
       </c>
-      <c r="L10" s="39">
-        <v>36</v>
-      </c>
-      <c r="M10" s="10">
-        <v>34.700000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="L10" s="10">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="7">
@@ -1784,15 +1719,12 @@
       <c r="K11" s="6">
         <v>47.6</v>
       </c>
-      <c r="L11" s="39">
-        <v>49.3</v>
-      </c>
-      <c r="M11" s="10">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="L11" s="10">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="7">
@@ -1825,15 +1757,12 @@
       <c r="K12" s="6">
         <v>73.400000000000006</v>
       </c>
-      <c r="L12" s="39">
-        <v>78</v>
-      </c>
-      <c r="M12" s="10">
-        <v>77.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="L12" s="10">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="7">
@@ -1866,15 +1795,12 @@
       <c r="K13" s="6">
         <v>36.9</v>
       </c>
-      <c r="L13" s="39">
-        <v>37.4</v>
-      </c>
-      <c r="M13" s="10">
+      <c r="L13" s="10">
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="7">
@@ -1907,15 +1833,12 @@
       <c r="K14" s="6">
         <v>48</v>
       </c>
-      <c r="L14" s="39">
-        <v>49.3</v>
-      </c>
-      <c r="M14" s="10">
-        <v>47.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="L14" s="10">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="7">
@@ -1948,15 +1871,12 @@
       <c r="K15" s="6">
         <v>50.5</v>
       </c>
-      <c r="L15" s="39">
-        <v>51.9</v>
-      </c>
-      <c r="M15" s="10">
-        <v>52.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="L15" s="10">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="7">
@@ -1989,15 +1909,12 @@
       <c r="K16" s="6">
         <v>55.1</v>
       </c>
-      <c r="L16" s="39">
-        <v>56.6</v>
-      </c>
-      <c r="M16" s="10">
-        <v>55.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="L16" s="10">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="7">
@@ -2030,15 +1947,12 @@
       <c r="K17" s="6">
         <v>78.8</v>
       </c>
-      <c r="L17" s="39">
-        <v>78.2</v>
-      </c>
-      <c r="M17" s="10">
-        <v>79.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="L17" s="10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="7">
@@ -2071,15 +1985,12 @@
       <c r="K18" s="6">
         <v>72</v>
       </c>
-      <c r="L18" s="39">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="M18" s="10">
-        <v>72.900000000000006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="L18" s="10">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="8">
@@ -2112,15 +2023,12 @@
       <c r="K19" s="9">
         <v>46.8</v>
       </c>
-      <c r="L19" s="40">
-        <v>47</v>
-      </c>
-      <c r="M19" s="11">
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="L19" s="11">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="7">
@@ -2153,15 +2061,12 @@
       <c r="K20" s="6">
         <v>56.4</v>
       </c>
-      <c r="L20" s="39">
-        <v>57.7</v>
-      </c>
-      <c r="M20" s="10">
-        <v>56.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="L20" s="10">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="7">
@@ -2194,15 +2099,12 @@
       <c r="K21" s="6">
         <v>66.599999999999994</v>
       </c>
-      <c r="L21" s="39">
-        <v>64.3</v>
-      </c>
-      <c r="M21" s="10">
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="L21" s="10">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="7">
@@ -2235,15 +2137,12 @@
       <c r="K22" s="6">
         <v>66.900000000000006</v>
       </c>
-      <c r="L22" s="39">
-        <v>67.2</v>
-      </c>
-      <c r="M22" s="10">
-        <v>64.099999999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="L22" s="10">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="7">
@@ -2276,15 +2175,12 @@
       <c r="K23" s="6">
         <v>60</v>
       </c>
-      <c r="L23" s="39">
-        <v>60.8</v>
-      </c>
-      <c r="M23" s="10">
-        <v>59.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="L23" s="10">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="7">
@@ -2317,15 +2213,12 @@
       <c r="K24" s="6">
         <v>36.700000000000003</v>
       </c>
-      <c r="L24" s="39">
-        <v>37.1</v>
-      </c>
-      <c r="M24" s="10">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="L24" s="10">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="7">
@@ -2358,15 +2251,12 @@
       <c r="K25" s="6">
         <v>81.8</v>
       </c>
-      <c r="L25" s="39">
-        <v>80.7</v>
-      </c>
-      <c r="M25" s="10">
-        <v>81.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="L25" s="10">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="7">
@@ -2399,15 +2289,12 @@
       <c r="K26" s="6">
         <v>70.8</v>
       </c>
-      <c r="L26" s="39">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="M26" s="10">
-        <v>70.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="L26" s="10">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="7">
@@ -2440,15 +2327,12 @@
       <c r="K27" s="6">
         <v>43.6</v>
       </c>
-      <c r="L27" s="39">
-        <v>43.8</v>
-      </c>
-      <c r="M27" s="10">
-        <v>43.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="L27" s="10">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="7">
@@ -2481,15 +2365,12 @@
       <c r="K28" s="6">
         <v>47.2</v>
       </c>
-      <c r="L28" s="39">
-        <v>46.5</v>
-      </c>
-      <c r="M28" s="10">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="L28" s="10">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="7">
@@ -2522,15 +2403,12 @@
       <c r="K29" s="6">
         <v>55.5</v>
       </c>
-      <c r="L29" s="39">
-        <v>57.5</v>
-      </c>
-      <c r="M29" s="10">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="L29" s="10">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="7">
@@ -2563,15 +2441,12 @@
       <c r="K30" s="6">
         <v>48.7</v>
       </c>
-      <c r="L30" s="39">
-        <v>48.2</v>
-      </c>
-      <c r="M30" s="10">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="L30" s="10">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="7">
@@ -2604,15 +2479,12 @@
       <c r="K31" s="6">
         <v>41.2</v>
       </c>
-      <c r="L31" s="39">
-        <v>41.1</v>
-      </c>
-      <c r="M31" s="10">
-        <v>41.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="L31" s="10">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="7">
@@ -2645,15 +2517,12 @@
       <c r="K32" s="6">
         <v>65.2</v>
       </c>
-      <c r="L32" s="39">
-        <v>62.4</v>
-      </c>
-      <c r="M32" s="10">
-        <v>63.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="L32" s="10">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="7">
@@ -2686,15 +2555,12 @@
       <c r="K33" s="6">
         <v>45.5</v>
       </c>
-      <c r="L33" s="39">
-        <v>45.9</v>
-      </c>
-      <c r="M33" s="10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="L33" s="10">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="7">
@@ -2727,15 +2593,12 @@
       <c r="K34" s="6">
         <v>73.2</v>
       </c>
-      <c r="L34" s="39">
-        <v>71.8</v>
-      </c>
-      <c r="M34" s="10">
-        <v>71.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="L34" s="10">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="7">
@@ -2768,15 +2631,12 @@
       <c r="K35" s="6">
         <v>71.8</v>
       </c>
-      <c r="L35" s="39">
-        <v>71.5</v>
-      </c>
-      <c r="M35" s="10">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="L35" s="10">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="7">
@@ -2809,15 +2669,12 @@
       <c r="K36" s="6">
         <v>62.1</v>
       </c>
-      <c r="L36" s="39">
-        <v>61</v>
-      </c>
-      <c r="M36" s="10">
+      <c r="L36" s="10">
         <v>60.4</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="7">
@@ -2850,55 +2707,49 @@
       <c r="K37" s="6">
         <v>60.7</v>
       </c>
-      <c r="L37" s="39">
-        <v>62</v>
-      </c>
-      <c r="M37" s="10">
-        <v>62.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="L37" s="10">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="34">
         <v>59.6</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="34">
         <v>58.6</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="34">
         <v>57.9</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="34">
         <v>58</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="34">
         <v>57.1</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="34">
         <v>56.9</v>
       </c>
-      <c r="H38" s="37">
+      <c r="H38" s="34">
         <v>56.5</v>
       </c>
-      <c r="I38" s="37">
+      <c r="I38" s="34">
         <v>56.1</v>
       </c>
-      <c r="J38" s="37">
+      <c r="J38" s="34">
         <v>55.4</v>
       </c>
-      <c r="K38" s="37">
+      <c r="K38" s="34">
         <v>55.8</v>
       </c>
-      <c r="L38" s="41">
-        <v>56.3</v>
-      </c>
-      <c r="M38" s="38">
-        <v>55.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="15" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L38" s="35">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="15" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>34</v>
       </c>
@@ -2914,94 +2765,89 @@
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="20"/>
-    </row>
-    <row r="40" spans="1:15" s="16" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="42" t="s">
+      <c r="N39" s="20"/>
+    </row>
+    <row r="40" spans="1:14" s="16" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="27"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="13"/>
       <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-    </row>
-    <row r="41" spans="1:15" s="17" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="43" t="s">
+    </row>
+    <row r="41" spans="1:14" s="17" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="28"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="21"/>
       <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-    </row>
-    <row r="42" spans="1:15" s="18" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
+    </row>
+    <row r="42" spans="1:14" s="18" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-    </row>
-    <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+    </row>
+    <row r="43" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K43" s="12"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="26"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -3012,7 +2858,7 @@
     <mergeCell ref="A40:K40"/>
     <mergeCell ref="A41:K41"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="A42:L42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.79" right="0.79" top="0.98" bottom="0.98" header="0" footer="0"/>

--- a/Tabulados/tasa_infromalidad-entidad.xlsx
+++ b/Tabulados/tasa_infromalidad-entidad.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBA46A1-0161-44AF-B5C6-370E07E92F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21573" windowHeight="9401"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasa_informalidad" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -158,13 +170,16 @@
     <t>Tasa de informalidad laboral por entidad federativa</t>
   </si>
   <si>
-    <t>IV trimestre 2012 - IV trimestre 2022</t>
+    <t>IV trimestre 2012 - I trimestre 2023</t>
+  </si>
+  <si>
+    <t>I trim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -818,26 +833,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -903,7 +914,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -914,34 +925,22 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="28" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="28" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="28" fillId="34" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -960,10 +959,7 @@
     <xf numFmtId="0" fontId="23" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -975,16 +971,9 @@
     <xf numFmtId="0" fontId="23" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="21" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="21" fillId="39" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -996,35 +985,61 @@
     <xf numFmtId="0" fontId="23" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="37" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="39" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis1 2" xfId="47"/>
+    <cellStyle name="20% - Énfasis1 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - Énfasis2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2 2" xfId="49"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="20% - Énfasis3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3 2" xfId="51"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% - Énfasis4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4 2" xfId="53"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% - Énfasis5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5 2" xfId="55"/>
+    <cellStyle name="20% - Énfasis5 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% - Énfasis6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6 2" xfId="57"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="40% - Énfasis1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1 2" xfId="48"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="40% - Énfasis2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2 2" xfId="50"/>
+    <cellStyle name="40% - Énfasis2 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="40% - Énfasis3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3 2" xfId="52"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="40% - Énfasis4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4 2" xfId="54"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% - Énfasis5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5 2" xfId="56"/>
+    <cellStyle name="40% - Énfasis5 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="40% - Énfasis6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6 2" xfId="58"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="60% - Énfasis1" xfId="13" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis2" xfId="14" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis3" xfId="15" builtinId="40" customBuiltin="1"/>
@@ -1047,11 +1062,11 @@
     <cellStyle name="Incorrecto" xfId="31" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="32" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="33"/>
-    <cellStyle name="Normal 3" xfId="44"/>
-    <cellStyle name="Normal_INDICA8" xfId="34"/>
+    <cellStyle name="Normal 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal_INDICA8" xfId="34" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="Notas" xfId="35" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Notas 2" xfId="46"/>
+    <cellStyle name="Notas 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="Porcentaje" xfId="59" builtinId="5"/>
     <cellStyle name="Salida" xfId="36" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="37" builtinId="11" customBuiltin="1"/>
@@ -1059,7 +1074,7 @@
     <cellStyle name="Título" xfId="39" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="41" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="42" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="45"/>
+    <cellStyle name="Título 4" xfId="45" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
     <cellStyle name="Total" xfId="43" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1151,6 +1166,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1186,6 +1218,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1361,21 +1410,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="3" customWidth="1"/>
-    <col min="2" max="12" width="9.5" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.375" style="3"/>
+    <col min="1" max="1" width="24.109375" style="3" customWidth="1"/>
+    <col min="2" max="13" width="9.44140625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="11.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1390,8 +1439,9 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1406,8 +1456,9 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1420,1434 +1471,1545 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="24">
         <v>2012</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <v>2013</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="18">
         <v>2014</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="18">
         <v>2015</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="18">
         <v>2016</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="18">
         <v>2017</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="18">
         <v>2018</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="18">
         <v>2019</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="18">
         <v>2020</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="18">
         <v>2021</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="18">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="30" t="s">
+      <c r="M4" s="19">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="M5" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="40">
         <v>49.7</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="38">
         <v>49.2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="38">
         <v>44.9</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="33">
         <v>43.6</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="33">
         <v>43.8</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="33">
         <v>43.8</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="33">
         <v>42.4</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="33">
         <v>41.3</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="33">
         <v>38.4</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="33">
         <v>40.6</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="33">
         <v>40.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="M6" s="6">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="40">
         <v>46</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="38">
         <v>41.4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="38">
         <v>39.299999999999997</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="33">
         <v>41.1</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="33">
         <v>37.9</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="33">
         <v>39.4</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="33">
         <v>38.5</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="33">
         <v>37.200000000000003</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="33">
         <v>37.4</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="33">
         <v>39.9</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="33">
         <v>36.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="M7" s="6">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="40">
         <v>42</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="38">
         <v>41.8</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="38">
         <v>41.3</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="33">
         <v>40.799999999999997</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="33">
         <v>37.799999999999997</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="33">
         <v>40.5</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="33">
         <v>35.5</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="33">
         <v>37.700000000000003</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="33">
         <v>37.6</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="33">
         <v>36.799999999999997</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="33">
         <v>39.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="M8" s="6">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="40">
         <v>62.2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="38">
         <v>60.6</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="38">
         <v>61.1</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="33">
         <v>62.2</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="33">
         <v>62.4</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="33">
         <v>63.4</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="33">
         <v>61.7</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="33">
         <v>63</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="33">
         <v>61</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="33">
         <v>60.9</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="33">
         <v>60.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="M9" s="6">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="40">
         <v>43.2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="38">
         <v>38.9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="38">
         <v>35.200000000000003</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="33">
         <v>36.700000000000003</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="33">
         <v>36.9</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="33">
         <v>36.700000000000003</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="33">
         <v>34.799999999999997</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="33">
         <v>34.200000000000003</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="33">
         <v>36.299999999999997</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="33">
         <v>35.4</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="33">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="M10" s="6">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="40">
         <v>55.5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="38">
         <v>53.5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="38">
         <v>54.1</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="33">
         <v>53.7</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="33">
         <v>52</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="33">
         <v>51.1</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="33">
         <v>50</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="33">
         <v>51.5</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="33">
         <v>49.4</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="33">
         <v>47.6</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="33">
         <v>46.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="M11" s="6">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="40">
         <v>77</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="38">
         <v>78.2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="38">
         <v>78.599999999999994</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="33">
         <v>79.2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="33">
         <v>80</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="33">
         <v>79.2</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="33">
         <v>78.3</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="33">
         <v>72.099999999999994</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="33">
         <v>76.900000000000006</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="33">
         <v>73.400000000000006</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="33">
         <v>75.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="M12" s="6">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="40">
         <v>42.5</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="38">
         <v>37.799999999999997</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="38">
         <v>38.4</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="33">
         <v>37.6</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="33">
         <v>34.6</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="33">
         <v>36.299999999999997</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="33">
         <v>36.6</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="33">
         <v>36</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="33">
         <v>36.1</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="33">
         <v>36.9</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="33">
         <v>36.799999999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="M13" s="6">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="40">
         <v>49.7</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="38">
         <v>50.7</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="38">
         <v>50.6</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="33">
         <v>49.2</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="33">
         <v>48.4</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="33">
         <v>47.9</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="33">
         <v>48.9</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="33">
         <v>49.1</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="33">
         <v>47.1</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="33">
         <v>48</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="33">
         <v>45.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="M14" s="6">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="40">
         <v>57.3</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="38">
         <v>57.3</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="38">
         <v>56.1</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="33">
         <v>55.7</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="33">
         <v>51.8</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="33">
         <v>54.1</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="33">
         <v>50.7</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="33">
         <v>51.5</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="33">
         <v>51.4</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="33">
         <v>50.5</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="33">
         <v>49.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="M15" s="6">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="40">
         <v>63.7</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="38">
         <v>61.1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="38">
         <v>58.8</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="33">
         <v>58</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="33">
         <v>56.6</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="33">
         <v>55.3</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="33">
         <v>52.9</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="33">
         <v>53.4</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="33">
         <v>54.5</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="33">
         <v>55.1</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="33">
         <v>54.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="M16" s="6">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="40">
         <v>79.599999999999994</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="38">
         <v>77.400000000000006</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="38">
         <v>79.599999999999994</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="33">
         <v>83.4</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="33">
         <v>78.099999999999994</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="33">
         <v>79.2</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="33">
         <v>78.5</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="33">
         <v>79.099999999999994</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="33">
         <v>77.2</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="33">
         <v>78.8</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="33">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="M17" s="6">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="40">
         <v>74.099999999999994</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="38">
         <v>72.599999999999994</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="38">
         <v>71.7</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="33">
         <v>72.099999999999994</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="33">
         <v>73.099999999999994</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="33">
         <v>74.8</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="33">
         <v>75.900000000000006</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="33">
         <v>74.7</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="33">
         <v>71.8</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="33">
         <v>72</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="33">
         <v>71.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="M18" s="6">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="41">
         <v>56.5</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="39">
         <v>52.4</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="39">
         <v>52.4</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="34">
         <v>49.9</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="34">
         <v>49.9</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="34">
         <v>50</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="34">
         <v>49.9</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="34">
         <v>48.5</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="34">
         <v>47.8</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="34">
         <v>46.8</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="34">
         <v>46.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="M19" s="7">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="40">
         <v>58.2</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="38">
         <v>59.2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="38">
         <v>59.4</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="33">
         <v>60.2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="33">
         <v>58</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="33">
         <v>57.2</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="33">
         <v>57.7</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="33">
         <v>57.6</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="33">
         <v>55.1</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="33">
         <v>56.4</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="33">
         <v>56.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="M20" s="6">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="40">
         <v>71.7</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="38">
         <v>72.900000000000006</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="38">
         <v>71.8</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="33">
         <v>70.3</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="33">
         <v>71.2</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="33">
         <v>70.900000000000006</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="33">
         <v>68.400000000000006</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="33">
         <v>69.599999999999994</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="33">
         <v>66</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="33">
         <v>66.599999999999994</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="33">
         <v>66.900000000000006</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="M21" s="6">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="40">
         <v>66.7</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="38">
         <v>66.7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="38">
         <v>65.7</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="33">
         <v>67.900000000000006</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="33">
         <v>68.599999999999994</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="33">
         <v>66.900000000000006</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="33">
         <v>69.099999999999994</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="33">
         <v>68.099999999999994</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="33">
         <v>65.3</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="33">
         <v>66.900000000000006</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="33">
         <v>64.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="M22" s="6">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="40">
         <v>65.2</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="38">
         <v>63.8</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="38">
         <v>63.3</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="33">
         <v>62.8</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="33">
         <v>63.4</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="33">
         <v>62.9</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="33">
         <v>62.4</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="33">
         <v>61.1</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="33">
         <v>56.9</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="33">
         <v>60</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="33">
         <v>59.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="M23" s="6">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="40">
         <v>40.9</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="38">
         <v>39.1</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="38">
         <v>36.700000000000003</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="33">
         <v>36.700000000000003</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="33">
         <v>37.299999999999997</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="33">
         <v>36.700000000000003</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="33">
         <v>37.299999999999997</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="33">
         <v>37.5</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="33">
         <v>36.4</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="33">
         <v>36.700000000000003</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="33">
         <v>35.799999999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="M24" s="6">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="40">
         <v>80.8</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="38">
         <v>81.099999999999994</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="38">
         <v>79.599999999999994</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="33">
         <v>80.599999999999994</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="33">
         <v>82.2</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="33">
         <v>81</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="33">
         <v>81.2</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="33">
         <v>80.400000000000006</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="33">
         <v>78.5</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="33">
         <v>81.8</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="33">
         <v>81.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="M25" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="40">
         <v>73.8</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="38">
         <v>73</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="38">
         <v>71.8</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="33">
         <v>74.5</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="33">
         <v>74.099999999999994</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="33">
         <v>73.900000000000006</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="33">
         <v>73.7</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="33">
         <v>71.8</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="33">
         <v>74</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="33">
         <v>70.8</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="33">
         <v>71.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="M26" s="6">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="40">
         <v>47.8</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="38">
         <v>45.1</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="38">
         <v>44.9</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="33">
         <v>44.7</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="33">
         <v>43.5</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="33">
         <v>46.3</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="33">
         <v>42.1</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="33">
         <v>41.4</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="33">
         <v>41.9</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="33">
         <v>43.6</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="33">
         <v>42.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="M27" s="6">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="40">
         <v>51</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="38">
         <v>48</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="38">
         <v>47</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="33">
         <v>47.7</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="33">
         <v>48.1</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="33">
         <v>46.2</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="33">
         <v>47.2</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="33">
         <v>45.5</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="33">
         <v>50.2</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="33">
         <v>47.2</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="33">
         <v>46.7</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="M28" s="6">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="40">
         <v>59.2</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="38">
         <v>58.7</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="38">
         <v>58.2</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="33">
         <v>57.3</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="33">
         <v>57.1</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="33">
         <v>55.2</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="33">
         <v>54.6</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="33">
         <v>56</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="33">
         <v>54</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="33">
         <v>55.5</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="33">
         <v>54.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="M29" s="6">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="40">
         <v>55</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="38">
         <v>50.9</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="38">
         <v>51.3</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="33">
         <v>51.2</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="33">
         <v>50.2</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="33">
         <v>50</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="33">
         <v>50.7</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="33">
         <v>50.6</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="33">
         <v>45.8</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="33">
         <v>48.7</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="33">
         <v>46.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="M30" s="6">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="40">
         <v>46.3</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="38">
         <v>47</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="38">
         <v>44</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="33">
         <v>46.1</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="33">
         <v>44.2</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="33">
         <v>42.1</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="33">
         <v>43</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="33">
         <v>43.2</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="33">
         <v>44.6</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="33">
         <v>41.2</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="33">
         <v>42.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="M31" s="6">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="40">
         <v>62.4</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="38">
         <v>63.4</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="38">
         <v>63.4</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="33">
         <v>65</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="33">
         <v>67.400000000000006</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="33">
         <v>68.5</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="33">
         <v>66.599999999999994</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="33">
         <v>65.2</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="33">
         <v>64.8</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="33">
         <v>65.2</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="33">
         <v>63.7</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="M32" s="6">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="40">
         <v>51.8</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="38">
         <v>50</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="38">
         <v>46.1</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="33">
         <v>47.2</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="33">
         <v>46.4</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="33">
         <v>45.9</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="33">
         <v>44.4</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="33">
         <v>43.9</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="33">
         <v>44.3</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="33">
         <v>45.5</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="33">
         <v>44.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="M33" s="6">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="40">
         <v>73.099999999999994</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="38">
         <v>73</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="38">
         <v>72</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="33">
         <v>71</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="33">
         <v>72.599999999999994</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="33">
         <v>71.400000000000006</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="33">
         <v>72.5</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="33">
         <v>71.2</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="33">
         <v>72</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="33">
         <v>73.2</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="33">
         <v>69.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="M34" s="6">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="40">
         <v>67.099999999999994</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="38">
         <v>66.400000000000006</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="38">
         <v>68.5</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="33">
         <v>69</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="33">
         <v>68.7</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="33">
         <v>69.2</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="33">
         <v>68.2</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="33">
         <v>68.2</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="33">
         <v>68.5</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="33">
         <v>71.8</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="33">
         <v>67.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="M35" s="6">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="40">
         <v>65.3</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="38">
         <v>64.2</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="38">
         <v>62.4</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="33">
         <v>62.8</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="33">
         <v>61.9</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="33">
         <v>61.4</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="33">
         <v>61.6</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="33">
         <v>60.4</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="33">
         <v>56.3</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="33">
         <v>62.1</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="33">
         <v>60.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="M36" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="40">
         <v>65.2</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="38">
         <v>67.599999999999994</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="38">
         <v>66.3</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="33">
         <v>64.7</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="33">
         <v>62.3</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="33">
         <v>61.4</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="33">
         <v>61.1</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="33">
         <v>61.8</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="33">
         <v>61.7</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="33">
         <v>60.7</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="33">
         <v>62.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="M37" s="6">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="34">
+      <c r="B38" s="42">
         <v>59.6</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="26">
         <v>58.6</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="26">
         <v>57.9</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="26">
         <v>58</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="26">
         <v>57.1</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="26">
         <v>56.9</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="26">
         <v>56.5</v>
       </c>
-      <c r="I38" s="34">
+      <c r="I38" s="26">
         <v>56.1</v>
       </c>
-      <c r="J38" s="34">
+      <c r="J38" s="26">
         <v>55.4</v>
       </c>
-      <c r="K38" s="34">
+      <c r="K38" s="26">
         <v>55.8</v>
       </c>
-      <c r="L38" s="35">
+      <c r="L38" s="26">
         <v>55.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" s="15" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="M38" s="27">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="20"/>
-    </row>
-    <row r="40" spans="1:14" s="16" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="36" t="s">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="16"/>
+    </row>
+    <row r="40" spans="1:15" s="12" customFormat="1" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" s="17" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37" t="s">
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="1:15" s="13" customFormat="1" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-    </row>
-    <row r="42" spans="1:14" s="18" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+    </row>
+    <row r="42" spans="1:15" s="14" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-    </row>
-    <row r="43" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K43" s="12"/>
-      <c r="L43" s="26"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>

--- a/Tabulados/tasa_infromalidad-entidad.xlsx
+++ b/Tabulados/tasa_infromalidad-entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBA46A1-0161-44AF-B5C6-370E07E92F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488E9E1F-3901-4BDD-BF62-7FBA3530CED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -170,10 +170,13 @@
     <t>Tasa de informalidad laboral por entidad federativa</t>
   </si>
   <si>
-    <t>IV trimestre 2012 - I trimestre 2023</t>
-  </si>
-  <si>
-    <t>I trim</t>
+    <t>IV trimestre 2012 - II trimestre 2023</t>
+  </si>
+  <si>
+    <t>II Trim</t>
+  </si>
+  <si>
+    <t>II trim</t>
   </si>
 </sst>
 </file>
@@ -973,6 +976,32 @@
     </xf>
     <xf numFmtId="164" fontId="21" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="21" fillId="39" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="37" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="39" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -988,32 +1017,6 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="37" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="39" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1091,9 +1094,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1131,9 +1134,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1166,26 +1169,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1218,26 +1204,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1414,7 +1383,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1474,7 +1443,7 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="24">
@@ -1505,7 +1474,7 @@
         <v>2020</v>
       </c>
       <c r="K4" s="18">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="L4" s="18">
         <v>2022</v>
@@ -1515,7 +1484,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
@@ -1547,1329 +1516,1329 @@
         <v>37</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="35">
         <v>49.7</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="33">
         <v>49.2</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="33">
         <v>44.9</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="28">
         <v>43.6</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="28">
         <v>43.8</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="28">
         <v>43.8</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="28">
         <v>42.4</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="28">
         <v>41.3</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="28">
         <v>38.4</v>
       </c>
-      <c r="K6" s="33">
-        <v>40.6</v>
-      </c>
-      <c r="L6" s="33">
+      <c r="K6" s="28">
         <v>40.5</v>
+      </c>
+      <c r="L6" s="28">
+        <v>40.4</v>
       </c>
       <c r="M6" s="6">
         <v>40.9</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="35">
         <v>46</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="33">
         <v>41.4</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="33">
         <v>39.299999999999997</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="28">
         <v>41.1</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="28">
         <v>37.9</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="28">
         <v>39.4</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="28">
         <v>38.5</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="28">
         <v>37.200000000000003</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="28">
         <v>37.4</v>
       </c>
-      <c r="K7" s="33">
-        <v>39.9</v>
-      </c>
-      <c r="L7" s="33">
+      <c r="K7" s="28">
         <v>36.6</v>
       </c>
+      <c r="L7" s="28">
+        <v>39.5</v>
+      </c>
       <c r="M7" s="6">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="35">
+        <v>42</v>
+      </c>
+      <c r="C8" s="33">
+        <v>41.8</v>
+      </c>
+      <c r="D8" s="33">
+        <v>41.3</v>
+      </c>
+      <c r="E8" s="28">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F8" s="28">
         <v>37.799999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="40">
-        <v>42</v>
-      </c>
-      <c r="C8" s="38">
-        <v>41.8</v>
-      </c>
-      <c r="D8" s="38">
-        <v>41.3</v>
-      </c>
-      <c r="E8" s="33">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="F8" s="33">
+      <c r="G8" s="28">
+        <v>40.5</v>
+      </c>
+      <c r="H8" s="28">
+        <v>35.5</v>
+      </c>
+      <c r="I8" s="28">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="J8" s="28">
+        <v>37.6</v>
+      </c>
+      <c r="K8" s="28">
+        <v>39.4</v>
+      </c>
+      <c r="L8" s="28">
+        <v>38.6</v>
+      </c>
+      <c r="M8" s="6">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="35">
+        <v>62.2</v>
+      </c>
+      <c r="C9" s="33">
+        <v>60.6</v>
+      </c>
+      <c r="D9" s="33">
+        <v>61.1</v>
+      </c>
+      <c r="E9" s="28">
+        <v>62.2</v>
+      </c>
+      <c r="F9" s="28">
+        <v>62.4</v>
+      </c>
+      <c r="G9" s="28">
+        <v>63.4</v>
+      </c>
+      <c r="H9" s="28">
+        <v>61.7</v>
+      </c>
+      <c r="I9" s="28">
+        <v>63</v>
+      </c>
+      <c r="J9" s="28">
+        <v>61</v>
+      </c>
+      <c r="K9" s="28">
+        <v>60.8</v>
+      </c>
+      <c r="L9" s="28">
+        <v>62.3</v>
+      </c>
+      <c r="M9" s="6">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="35">
+        <v>43.2</v>
+      </c>
+      <c r="C10" s="33">
+        <v>38.9</v>
+      </c>
+      <c r="D10" s="33">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E10" s="28">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="F10" s="28">
+        <v>36.9</v>
+      </c>
+      <c r="G10" s="28">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="H10" s="28">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="I10" s="28">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="J10" s="28">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="K10" s="28">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="L10" s="28">
+        <v>35.4</v>
+      </c>
+      <c r="M10" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="35">
+        <v>55.5</v>
+      </c>
+      <c r="C11" s="33">
+        <v>53.5</v>
+      </c>
+      <c r="D11" s="33">
+        <v>54.1</v>
+      </c>
+      <c r="E11" s="28">
+        <v>53.7</v>
+      </c>
+      <c r="F11" s="28">
+        <v>52</v>
+      </c>
+      <c r="G11" s="28">
+        <v>51.1</v>
+      </c>
+      <c r="H11" s="28">
+        <v>50</v>
+      </c>
+      <c r="I11" s="28">
+        <v>51.5</v>
+      </c>
+      <c r="J11" s="28">
+        <v>49.4</v>
+      </c>
+      <c r="K11" s="28">
+        <v>46.9</v>
+      </c>
+      <c r="L11" s="28">
+        <v>49.1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="35">
+        <v>77</v>
+      </c>
+      <c r="C12" s="33">
+        <v>78.2</v>
+      </c>
+      <c r="D12" s="33">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="E12" s="28">
+        <v>79.2</v>
+      </c>
+      <c r="F12" s="28">
+        <v>80</v>
+      </c>
+      <c r="G12" s="28">
+        <v>79.2</v>
+      </c>
+      <c r="H12" s="28">
+        <v>78.3</v>
+      </c>
+      <c r="I12" s="28">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="J12" s="28">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="K12" s="28">
+        <v>75.2</v>
+      </c>
+      <c r="L12" s="28">
+        <v>76.2</v>
+      </c>
+      <c r="M12" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="35">
+        <v>42.5</v>
+      </c>
+      <c r="C13" s="33">
         <v>37.799999999999997</v>
       </c>
-      <c r="G8" s="33">
-        <v>40.5</v>
-      </c>
-      <c r="H8" s="33">
-        <v>35.5</v>
-      </c>
-      <c r="I8" s="33">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="J8" s="33">
+      <c r="D13" s="33">
+        <v>38.4</v>
+      </c>
+      <c r="E13" s="28">
         <v>37.6</v>
       </c>
-      <c r="K8" s="33">
+      <c r="F13" s="28">
+        <v>34.6</v>
+      </c>
+      <c r="G13" s="28">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="H13" s="28">
+        <v>36.6</v>
+      </c>
+      <c r="I13" s="28">
+        <v>36</v>
+      </c>
+      <c r="J13" s="28">
+        <v>36.1</v>
+      </c>
+      <c r="K13" s="28">
         <v>36.799999999999997</v>
       </c>
-      <c r="L8" s="33">
-        <v>39.4</v>
-      </c>
-      <c r="M8" s="6">
-        <v>37.799999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="40">
-        <v>62.2</v>
-      </c>
-      <c r="C9" s="38">
-        <v>60.6</v>
-      </c>
-      <c r="D9" s="38">
+      <c r="L13" s="28">
+        <v>36.6</v>
+      </c>
+      <c r="M13" s="6">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="35">
+        <v>49.7</v>
+      </c>
+      <c r="C14" s="33">
+        <v>50.7</v>
+      </c>
+      <c r="D14" s="33">
+        <v>50.6</v>
+      </c>
+      <c r="E14" s="28">
+        <v>49.2</v>
+      </c>
+      <c r="F14" s="28">
+        <v>48.4</v>
+      </c>
+      <c r="G14" s="28">
+        <v>47.9</v>
+      </c>
+      <c r="H14" s="28">
+        <v>48.9</v>
+      </c>
+      <c r="I14" s="28">
+        <v>49.1</v>
+      </c>
+      <c r="J14" s="28">
+        <v>47.1</v>
+      </c>
+      <c r="K14" s="28">
+        <v>45.8</v>
+      </c>
+      <c r="L14" s="28">
+        <v>48.1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="35">
+        <v>57.3</v>
+      </c>
+      <c r="C15" s="33">
+        <v>57.3</v>
+      </c>
+      <c r="D15" s="33">
+        <v>56.1</v>
+      </c>
+      <c r="E15" s="28">
+        <v>55.7</v>
+      </c>
+      <c r="F15" s="28">
+        <v>51.8</v>
+      </c>
+      <c r="G15" s="28">
+        <v>54.1</v>
+      </c>
+      <c r="H15" s="28">
+        <v>50.7</v>
+      </c>
+      <c r="I15" s="28">
+        <v>51.5</v>
+      </c>
+      <c r="J15" s="28">
+        <v>51.4</v>
+      </c>
+      <c r="K15" s="28">
+        <v>49.5</v>
+      </c>
+      <c r="L15" s="28">
+        <v>50.2</v>
+      </c>
+      <c r="M15" s="6">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="35">
+        <v>63.7</v>
+      </c>
+      <c r="C16" s="33">
         <v>61.1</v>
       </c>
-      <c r="E9" s="33">
-        <v>62.2</v>
-      </c>
-      <c r="F9" s="33">
-        <v>62.4</v>
-      </c>
-      <c r="G9" s="33">
-        <v>63.4</v>
-      </c>
-      <c r="H9" s="33">
-        <v>61.7</v>
-      </c>
-      <c r="I9" s="33">
-        <v>63</v>
-      </c>
-      <c r="J9" s="33">
-        <v>61</v>
-      </c>
-      <c r="K9" s="33">
-        <v>60.9</v>
-      </c>
-      <c r="L9" s="33">
-        <v>60.8</v>
-      </c>
-      <c r="M9" s="6">
-        <v>61.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="40">
-        <v>43.2</v>
-      </c>
-      <c r="C10" s="38">
-        <v>38.9</v>
-      </c>
-      <c r="D10" s="38">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="E10" s="33">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="F10" s="33">
-        <v>36.9</v>
-      </c>
-      <c r="G10" s="33">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="H10" s="33">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="I10" s="33">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="J10" s="33">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="K10" s="33">
-        <v>35.4</v>
-      </c>
-      <c r="L10" s="33">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="M10" s="6">
-        <v>34.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="40">
-        <v>55.5</v>
-      </c>
-      <c r="C11" s="38">
-        <v>53.5</v>
-      </c>
-      <c r="D11" s="38">
-        <v>54.1</v>
-      </c>
-      <c r="E11" s="33">
-        <v>53.7</v>
-      </c>
-      <c r="F11" s="33">
-        <v>52</v>
-      </c>
-      <c r="G11" s="33">
-        <v>51.1</v>
-      </c>
-      <c r="H11" s="33">
+      <c r="D16" s="33">
+        <v>58.8</v>
+      </c>
+      <c r="E16" s="28">
+        <v>58</v>
+      </c>
+      <c r="F16" s="28">
+        <v>56.6</v>
+      </c>
+      <c r="G16" s="28">
+        <v>55.3</v>
+      </c>
+      <c r="H16" s="28">
+        <v>52.9</v>
+      </c>
+      <c r="I16" s="28">
+        <v>53.4</v>
+      </c>
+      <c r="J16" s="28">
+        <v>54.5</v>
+      </c>
+      <c r="K16" s="28">
+        <v>54.6</v>
+      </c>
+      <c r="L16" s="28">
+        <v>56.1</v>
+      </c>
+      <c r="M16" s="6">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="35">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="C17" s="33">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="D17" s="33">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="E17" s="28">
+        <v>83.4</v>
+      </c>
+      <c r="F17" s="28">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="G17" s="28">
+        <v>79.2</v>
+      </c>
+      <c r="H17" s="28">
+        <v>78.5</v>
+      </c>
+      <c r="I17" s="28">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="J17" s="28">
+        <v>77.2</v>
+      </c>
+      <c r="K17" s="28">
+        <v>79</v>
+      </c>
+      <c r="L17" s="28">
+        <v>79.7</v>
+      </c>
+      <c r="M17" s="6">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="35">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="C18" s="33">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="D18" s="33">
+        <v>71.7</v>
+      </c>
+      <c r="E18" s="28">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F18" s="28">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="G18" s="28">
+        <v>74.8</v>
+      </c>
+      <c r="H18" s="28">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="I18" s="28">
+        <v>74.7</v>
+      </c>
+      <c r="J18" s="28">
+        <v>71.8</v>
+      </c>
+      <c r="K18" s="28">
+        <v>71.7</v>
+      </c>
+      <c r="L18" s="28">
+        <v>72.7</v>
+      </c>
+      <c r="M18" s="6">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="36">
+        <v>56.5</v>
+      </c>
+      <c r="C19" s="34">
+        <v>52.4</v>
+      </c>
+      <c r="D19" s="34">
+        <v>52.4</v>
+      </c>
+      <c r="E19" s="29">
+        <v>49.9</v>
+      </c>
+      <c r="F19" s="29">
+        <v>49.9</v>
+      </c>
+      <c r="G19" s="29">
         <v>50</v>
       </c>
-      <c r="I11" s="33">
-        <v>51.5</v>
-      </c>
-      <c r="J11" s="33">
-        <v>49.4</v>
-      </c>
-      <c r="K11" s="33">
-        <v>47.6</v>
-      </c>
-      <c r="L11" s="33">
-        <v>46.9</v>
-      </c>
-      <c r="M11" s="6">
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="40">
-        <v>77</v>
-      </c>
-      <c r="C12" s="38">
-        <v>78.2</v>
-      </c>
-      <c r="D12" s="38">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="E12" s="33">
-        <v>79.2</v>
-      </c>
-      <c r="F12" s="33">
-        <v>80</v>
-      </c>
-      <c r="G12" s="33">
-        <v>79.2</v>
-      </c>
-      <c r="H12" s="33">
-        <v>78.3</v>
-      </c>
-      <c r="I12" s="33">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="J12" s="33">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="K12" s="33">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="L12" s="33">
-        <v>75.2</v>
-      </c>
-      <c r="M12" s="6">
-        <v>73.900000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="40">
-        <v>42.5</v>
-      </c>
-      <c r="C13" s="38">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="D13" s="38">
-        <v>38.4</v>
-      </c>
-      <c r="E13" s="33">
-        <v>37.6</v>
-      </c>
-      <c r="F13" s="33">
-        <v>34.6</v>
-      </c>
-      <c r="G13" s="33">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="H13" s="33">
-        <v>36.6</v>
-      </c>
-      <c r="I13" s="33">
-        <v>36</v>
-      </c>
-      <c r="J13" s="33">
-        <v>36.1</v>
-      </c>
-      <c r="K13" s="33">
-        <v>36.9</v>
-      </c>
-      <c r="L13" s="33">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="M13" s="6">
-        <v>34.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="40">
-        <v>49.7</v>
-      </c>
-      <c r="C14" s="38">
-        <v>50.7</v>
-      </c>
-      <c r="D14" s="38">
-        <v>50.6</v>
-      </c>
-      <c r="E14" s="33">
-        <v>49.2</v>
-      </c>
-      <c r="F14" s="33">
-        <v>48.4</v>
-      </c>
-      <c r="G14" s="33">
-        <v>47.9</v>
-      </c>
-      <c r="H14" s="33">
-        <v>48.9</v>
-      </c>
-      <c r="I14" s="33">
-        <v>49.1</v>
-      </c>
-      <c r="J14" s="33">
-        <v>47.1</v>
-      </c>
-      <c r="K14" s="33">
-        <v>48</v>
-      </c>
-      <c r="L14" s="33">
-        <v>45.8</v>
-      </c>
-      <c r="M14" s="6">
-        <v>46.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="40">
-        <v>57.3</v>
-      </c>
-      <c r="C15" s="38">
-        <v>57.3</v>
-      </c>
-      <c r="D15" s="38">
-        <v>56.1</v>
-      </c>
-      <c r="E15" s="33">
-        <v>55.7</v>
-      </c>
-      <c r="F15" s="33">
-        <v>51.8</v>
-      </c>
-      <c r="G15" s="33">
-        <v>54.1</v>
-      </c>
-      <c r="H15" s="33">
-        <v>50.7</v>
-      </c>
-      <c r="I15" s="33">
-        <v>51.5</v>
-      </c>
-      <c r="J15" s="33">
-        <v>51.4</v>
-      </c>
-      <c r="K15" s="33">
-        <v>50.5</v>
-      </c>
-      <c r="L15" s="33">
-        <v>49.5</v>
-      </c>
-      <c r="M15" s="6">
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="40">
-        <v>63.7</v>
-      </c>
-      <c r="C16" s="38">
-        <v>61.1</v>
-      </c>
-      <c r="D16" s="38">
-        <v>58.8</v>
-      </c>
-      <c r="E16" s="33">
+      <c r="H19" s="29">
+        <v>49.9</v>
+      </c>
+      <c r="I19" s="29">
+        <v>48.5</v>
+      </c>
+      <c r="J19" s="29">
+        <v>47.8</v>
+      </c>
+      <c r="K19" s="29">
+        <v>46.6</v>
+      </c>
+      <c r="L19" s="29">
+        <v>47.3</v>
+      </c>
+      <c r="M19" s="7">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="35">
+        <v>58.2</v>
+      </c>
+      <c r="C20" s="33">
+        <v>59.2</v>
+      </c>
+      <c r="D20" s="33">
+        <v>59.4</v>
+      </c>
+      <c r="E20" s="28">
+        <v>60.2</v>
+      </c>
+      <c r="F20" s="28">
         <v>58</v>
       </c>
-      <c r="F16" s="33">
-        <v>56.6</v>
-      </c>
-      <c r="G16" s="33">
-        <v>55.3</v>
-      </c>
-      <c r="H16" s="33">
-        <v>52.9</v>
-      </c>
-      <c r="I16" s="33">
-        <v>53.4</v>
-      </c>
-      <c r="J16" s="33">
-        <v>54.5</v>
-      </c>
-      <c r="K16" s="33">
+      <c r="G20" s="28">
+        <v>57.2</v>
+      </c>
+      <c r="H20" s="28">
+        <v>57.7</v>
+      </c>
+      <c r="I20" s="28">
+        <v>57.6</v>
+      </c>
+      <c r="J20" s="28">
         <v>55.1</v>
       </c>
-      <c r="L16" s="33">
-        <v>54.6</v>
-      </c>
-      <c r="M16" s="6">
-        <v>56.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="40">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="C17" s="38">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="D17" s="38">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="E17" s="33">
-        <v>83.4</v>
-      </c>
-      <c r="F17" s="33">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="G17" s="33">
-        <v>79.2</v>
-      </c>
-      <c r="H17" s="33">
-        <v>78.5</v>
-      </c>
-      <c r="I17" s="33">
-        <v>79.099999999999994</v>
-      </c>
-      <c r="J17" s="33">
-        <v>77.2</v>
-      </c>
-      <c r="K17" s="33">
-        <v>78.8</v>
-      </c>
-      <c r="L17" s="33">
-        <v>79</v>
-      </c>
-      <c r="M17" s="6">
-        <v>79.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="40">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="C18" s="38">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="D18" s="38">
-        <v>71.7</v>
-      </c>
-      <c r="E18" s="33">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F18" s="33">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="G18" s="33">
-        <v>74.8</v>
-      </c>
-      <c r="H18" s="33">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="I18" s="33">
-        <v>74.7</v>
-      </c>
-      <c r="J18" s="33">
-        <v>71.8</v>
-      </c>
-      <c r="K18" s="33">
-        <v>72</v>
-      </c>
-      <c r="L18" s="33">
-        <v>71.7</v>
-      </c>
-      <c r="M18" s="6">
-        <v>71.099999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="41">
-        <v>56.5</v>
-      </c>
-      <c r="C19" s="39">
-        <v>52.4</v>
-      </c>
-      <c r="D19" s="39">
-        <v>52.4</v>
-      </c>
-      <c r="E19" s="34">
-        <v>49.9</v>
-      </c>
-      <c r="F19" s="34">
-        <v>49.9</v>
-      </c>
-      <c r="G19" s="34">
-        <v>50</v>
-      </c>
-      <c r="H19" s="34">
-        <v>49.9</v>
-      </c>
-      <c r="I19" s="34">
-        <v>48.5</v>
-      </c>
-      <c r="J19" s="34">
-        <v>47.8</v>
-      </c>
-      <c r="K19" s="34">
-        <v>46.8</v>
-      </c>
-      <c r="L19" s="34">
-        <v>46.6</v>
-      </c>
-      <c r="M19" s="7">
-        <v>46.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="40">
-        <v>58.2</v>
-      </c>
-      <c r="C20" s="38">
-        <v>59.2</v>
-      </c>
-      <c r="D20" s="38">
-        <v>59.4</v>
-      </c>
-      <c r="E20" s="33">
-        <v>60.2</v>
-      </c>
-      <c r="F20" s="33">
-        <v>58</v>
-      </c>
-      <c r="G20" s="33">
-        <v>57.2</v>
-      </c>
-      <c r="H20" s="33">
-        <v>57.7</v>
-      </c>
-      <c r="I20" s="33">
-        <v>57.6</v>
-      </c>
-      <c r="J20" s="33">
-        <v>55.1</v>
-      </c>
-      <c r="K20" s="33">
-        <v>56.4</v>
-      </c>
-      <c r="L20" s="33">
+      <c r="K20" s="28">
         <v>56.8</v>
+      </c>
+      <c r="L20" s="28">
+        <v>56</v>
       </c>
       <c r="M20" s="6">
         <v>56.3</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="35">
         <v>71.7</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="33">
         <v>72.900000000000006</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="33">
         <v>71.8</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="28">
         <v>70.3</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="28">
         <v>71.2</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="28">
         <v>70.900000000000006</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="28">
         <v>68.400000000000006</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="28">
         <v>69.599999999999994</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="28">
         <v>66</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="28">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="L21" s="28">
+        <v>65.8</v>
+      </c>
+      <c r="M21" s="6">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="35">
+        <v>66.7</v>
+      </c>
+      <c r="C22" s="33">
+        <v>66.7</v>
+      </c>
+      <c r="D22" s="33">
+        <v>65.7</v>
+      </c>
+      <c r="E22" s="28">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="F22" s="28">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="G22" s="28">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="H22" s="28">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="I22" s="28">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="J22" s="28">
+        <v>65.3</v>
+      </c>
+      <c r="K22" s="28">
+        <v>64.2</v>
+      </c>
+      <c r="L22" s="28">
+        <v>63.7</v>
+      </c>
+      <c r="M22" s="6">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="35">
+        <v>65.2</v>
+      </c>
+      <c r="C23" s="33">
+        <v>63.8</v>
+      </c>
+      <c r="D23" s="33">
+        <v>63.3</v>
+      </c>
+      <c r="E23" s="28">
+        <v>62.8</v>
+      </c>
+      <c r="F23" s="28">
+        <v>63.4</v>
+      </c>
+      <c r="G23" s="28">
+        <v>62.9</v>
+      </c>
+      <c r="H23" s="28">
+        <v>62.4</v>
+      </c>
+      <c r="I23" s="28">
+        <v>61.1</v>
+      </c>
+      <c r="J23" s="28">
+        <v>56.9</v>
+      </c>
+      <c r="K23" s="28">
+        <v>59.7</v>
+      </c>
+      <c r="L23" s="28">
+        <v>59.4</v>
+      </c>
+      <c r="M23" s="6">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="35">
+        <v>40.9</v>
+      </c>
+      <c r="C24" s="33">
+        <v>39.1</v>
+      </c>
+      <c r="D24" s="33">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E24" s="28">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="F24" s="28">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="G24" s="28">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="H24" s="28">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="I24" s="28">
+        <v>37.5</v>
+      </c>
+      <c r="J24" s="28">
+        <v>36.4</v>
+      </c>
+      <c r="K24" s="28">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="L24" s="28">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="M24" s="6">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="35">
+        <v>80.8</v>
+      </c>
+      <c r="C25" s="33">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="D25" s="33">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="E25" s="28">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="F25" s="28">
+        <v>82.2</v>
+      </c>
+      <c r="G25" s="28">
+        <v>81</v>
+      </c>
+      <c r="H25" s="28">
+        <v>81.2</v>
+      </c>
+      <c r="I25" s="28">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="J25" s="28">
+        <v>78.5</v>
+      </c>
+      <c r="K25" s="28">
+        <v>81.2</v>
+      </c>
+      <c r="L25" s="28">
+        <v>80.5</v>
+      </c>
+      <c r="M25" s="6">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="35">
+        <v>73.8</v>
+      </c>
+      <c r="C26" s="33">
+        <v>73</v>
+      </c>
+      <c r="D26" s="33">
+        <v>71.8</v>
+      </c>
+      <c r="E26" s="28">
+        <v>74.5</v>
+      </c>
+      <c r="F26" s="28">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="G26" s="28">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="H26" s="28">
+        <v>73.7</v>
+      </c>
+      <c r="I26" s="28">
+        <v>71.8</v>
+      </c>
+      <c r="J26" s="28">
+        <v>74</v>
+      </c>
+      <c r="K26" s="28">
+        <v>71.3</v>
+      </c>
+      <c r="L26" s="28">
+        <v>72.8</v>
+      </c>
+      <c r="M26" s="6">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="35">
+        <v>47.8</v>
+      </c>
+      <c r="C27" s="33">
+        <v>45.1</v>
+      </c>
+      <c r="D27" s="33">
+        <v>44.9</v>
+      </c>
+      <c r="E27" s="28">
+        <v>44.7</v>
+      </c>
+      <c r="F27" s="28">
+        <v>43.5</v>
+      </c>
+      <c r="G27" s="28">
+        <v>46.3</v>
+      </c>
+      <c r="H27" s="28">
+        <v>42.1</v>
+      </c>
+      <c r="I27" s="28">
+        <v>41.4</v>
+      </c>
+      <c r="J27" s="28">
+        <v>41.9</v>
+      </c>
+      <c r="K27" s="28">
+        <v>42.7</v>
+      </c>
+      <c r="L27" s="28">
+        <v>42.7</v>
+      </c>
+      <c r="M27" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="35">
+        <v>51</v>
+      </c>
+      <c r="C28" s="33">
+        <v>48</v>
+      </c>
+      <c r="D28" s="33">
+        <v>47</v>
+      </c>
+      <c r="E28" s="28">
+        <v>47.7</v>
+      </c>
+      <c r="F28" s="28">
+        <v>48.1</v>
+      </c>
+      <c r="G28" s="28">
+        <v>46.2</v>
+      </c>
+      <c r="H28" s="28">
+        <v>47.2</v>
+      </c>
+      <c r="I28" s="28">
+        <v>45.5</v>
+      </c>
+      <c r="J28" s="28">
+        <v>50.2</v>
+      </c>
+      <c r="K28" s="28">
+        <v>46.7</v>
+      </c>
+      <c r="L28" s="28">
+        <v>47.4</v>
+      </c>
+      <c r="M28" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="35">
+        <v>59.2</v>
+      </c>
+      <c r="C29" s="33">
+        <v>58.7</v>
+      </c>
+      <c r="D29" s="33">
+        <v>58.2</v>
+      </c>
+      <c r="E29" s="28">
+        <v>57.3</v>
+      </c>
+      <c r="F29" s="28">
+        <v>57.1</v>
+      </c>
+      <c r="G29" s="28">
+        <v>55.2</v>
+      </c>
+      <c r="H29" s="28">
+        <v>54.6</v>
+      </c>
+      <c r="I29" s="28">
+        <v>56</v>
+      </c>
+      <c r="J29" s="28">
+        <v>54</v>
+      </c>
+      <c r="K29" s="28">
+        <v>54.5</v>
+      </c>
+      <c r="L29" s="28">
+        <v>54.1</v>
+      </c>
+      <c r="M29" s="6">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="35">
+        <v>55</v>
+      </c>
+      <c r="C30" s="33">
+        <v>50.9</v>
+      </c>
+      <c r="D30" s="33">
+        <v>51.3</v>
+      </c>
+      <c r="E30" s="28">
+        <v>51.2</v>
+      </c>
+      <c r="F30" s="28">
+        <v>50.2</v>
+      </c>
+      <c r="G30" s="28">
+        <v>50</v>
+      </c>
+      <c r="H30" s="28">
+        <v>50.7</v>
+      </c>
+      <c r="I30" s="28">
+        <v>50.6</v>
+      </c>
+      <c r="J30" s="28">
+        <v>45.8</v>
+      </c>
+      <c r="K30" s="28">
+        <v>46.4</v>
+      </c>
+      <c r="L30" s="28">
+        <v>49.3</v>
+      </c>
+      <c r="M30" s="6">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="35">
+        <v>46.3</v>
+      </c>
+      <c r="C31" s="33">
+        <v>47</v>
+      </c>
+      <c r="D31" s="33">
+        <v>44</v>
+      </c>
+      <c r="E31" s="28">
+        <v>46.1</v>
+      </c>
+      <c r="F31" s="28">
+        <v>44.2</v>
+      </c>
+      <c r="G31" s="28">
+        <v>42.1</v>
+      </c>
+      <c r="H31" s="28">
+        <v>43</v>
+      </c>
+      <c r="I31" s="28">
+        <v>43.2</v>
+      </c>
+      <c r="J31" s="28">
+        <v>44.6</v>
+      </c>
+      <c r="K31" s="28">
+        <v>42.3</v>
+      </c>
+      <c r="L31" s="28">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="M31" s="6">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="35">
+        <v>62.4</v>
+      </c>
+      <c r="C32" s="33">
+        <v>63.4</v>
+      </c>
+      <c r="D32" s="33">
+        <v>63.4</v>
+      </c>
+      <c r="E32" s="28">
+        <v>65</v>
+      </c>
+      <c r="F32" s="28">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="G32" s="28">
+        <v>68.5</v>
+      </c>
+      <c r="H32" s="28">
         <v>66.599999999999994</v>
       </c>
-      <c r="L21" s="33">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="M21" s="6">
+      <c r="I32" s="28">
+        <v>65.2</v>
+      </c>
+      <c r="J32" s="28">
+        <v>64.8</v>
+      </c>
+      <c r="K32" s="28">
+        <v>63.7</v>
+      </c>
+      <c r="L32" s="28">
+        <v>63</v>
+      </c>
+      <c r="M32" s="6">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="35">
+        <v>51.8</v>
+      </c>
+      <c r="C33" s="33">
+        <v>50</v>
+      </c>
+      <c r="D33" s="33">
+        <v>46.1</v>
+      </c>
+      <c r="E33" s="28">
+        <v>47.2</v>
+      </c>
+      <c r="F33" s="28">
+        <v>46.4</v>
+      </c>
+      <c r="G33" s="28">
+        <v>45.9</v>
+      </c>
+      <c r="H33" s="28">
+        <v>44.4</v>
+      </c>
+      <c r="I33" s="28">
+        <v>43.9</v>
+      </c>
+      <c r="J33" s="28">
+        <v>44.3</v>
+      </c>
+      <c r="K33" s="28">
+        <v>44.7</v>
+      </c>
+      <c r="L33" s="28">
+        <v>45.7</v>
+      </c>
+      <c r="M33" s="6">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="35">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="C34" s="33">
+        <v>73</v>
+      </c>
+      <c r="D34" s="33">
+        <v>72</v>
+      </c>
+      <c r="E34" s="28">
+        <v>71</v>
+      </c>
+      <c r="F34" s="28">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="G34" s="28">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="H34" s="28">
+        <v>72.5</v>
+      </c>
+      <c r="I34" s="28">
+        <v>71.2</v>
+      </c>
+      <c r="J34" s="28">
+        <v>72</v>
+      </c>
+      <c r="K34" s="28">
+        <v>69.8</v>
+      </c>
+      <c r="L34" s="28">
+        <v>72.3</v>
+      </c>
+      <c r="M34" s="6">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="35">
         <v>67.099999999999994</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="40">
-        <v>66.7</v>
-      </c>
-      <c r="C22" s="38">
-        <v>66.7</v>
-      </c>
-      <c r="D22" s="38">
-        <v>65.7</v>
-      </c>
-      <c r="E22" s="33">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="F22" s="33">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="G22" s="33">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="H22" s="33">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="I22" s="33">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="J22" s="33">
+      <c r="C35" s="33">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D35" s="33">
+        <v>68.5</v>
+      </c>
+      <c r="E35" s="28">
+        <v>69</v>
+      </c>
+      <c r="F35" s="28">
+        <v>68.7</v>
+      </c>
+      <c r="G35" s="28">
+        <v>69.2</v>
+      </c>
+      <c r="H35" s="28">
+        <v>68.2</v>
+      </c>
+      <c r="I35" s="28">
+        <v>68.2</v>
+      </c>
+      <c r="J35" s="28">
+        <v>68.5</v>
+      </c>
+      <c r="K35" s="28">
+        <v>67.3</v>
+      </c>
+      <c r="L35" s="28">
+        <v>67.5</v>
+      </c>
+      <c r="M35" s="6">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="35">
         <v>65.3</v>
       </c>
-      <c r="K22" s="33">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="L22" s="33">
+      <c r="C36" s="33">
         <v>64.2</v>
       </c>
-      <c r="M22" s="6">
+      <c r="D36" s="33">
+        <v>62.4</v>
+      </c>
+      <c r="E36" s="28">
+        <v>62.8</v>
+      </c>
+      <c r="F36" s="28">
+        <v>61.9</v>
+      </c>
+      <c r="G36" s="28">
+        <v>61.4</v>
+      </c>
+      <c r="H36" s="28">
+        <v>61.6</v>
+      </c>
+      <c r="I36" s="28">
+        <v>60.4</v>
+      </c>
+      <c r="J36" s="28">
+        <v>56.3</v>
+      </c>
+      <c r="K36" s="28">
+        <v>60.4</v>
+      </c>
+      <c r="L36" s="28">
+        <v>61.7</v>
+      </c>
+      <c r="M36" s="6">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="35">
+        <v>65.2</v>
+      </c>
+      <c r="C37" s="33">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="D37" s="33">
+        <v>66.3</v>
+      </c>
+      <c r="E37" s="28">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="40">
-        <v>65.2</v>
-      </c>
-      <c r="C23" s="38">
-        <v>63.8</v>
-      </c>
-      <c r="D23" s="38">
-        <v>63.3</v>
-      </c>
-      <c r="E23" s="33">
-        <v>62.8</v>
-      </c>
-      <c r="F23" s="33">
-        <v>63.4</v>
-      </c>
-      <c r="G23" s="33">
-        <v>62.9</v>
-      </c>
-      <c r="H23" s="33">
+      <c r="F37" s="28">
+        <v>62.3</v>
+      </c>
+      <c r="G37" s="28">
+        <v>61.4</v>
+      </c>
+      <c r="H37" s="28">
+        <v>61.1</v>
+      </c>
+      <c r="I37" s="28">
+        <v>61.8</v>
+      </c>
+      <c r="J37" s="28">
+        <v>61.7</v>
+      </c>
+      <c r="K37" s="28">
         <v>62.4</v>
       </c>
-      <c r="I23" s="33">
-        <v>61.1</v>
-      </c>
-      <c r="J23" s="33">
-        <v>56.9</v>
-      </c>
-      <c r="K23" s="33">
-        <v>60</v>
-      </c>
-      <c r="L23" s="33">
-        <v>59.7</v>
-      </c>
-      <c r="M23" s="6">
-        <v>58.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="40">
-        <v>40.9</v>
-      </c>
-      <c r="C24" s="38">
-        <v>39.1</v>
-      </c>
-      <c r="D24" s="38">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="E24" s="33">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="F24" s="33">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="G24" s="33">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="H24" s="33">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="I24" s="33">
-        <v>37.5</v>
-      </c>
-      <c r="J24" s="33">
-        <v>36.4</v>
-      </c>
-      <c r="K24" s="33">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="L24" s="33">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="M24" s="6">
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="40">
-        <v>80.8</v>
-      </c>
-      <c r="C25" s="38">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="D25" s="38">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="E25" s="33">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="F25" s="33">
-        <v>82.2</v>
-      </c>
-      <c r="G25" s="33">
-        <v>81</v>
-      </c>
-      <c r="H25" s="33">
-        <v>81.2</v>
-      </c>
-      <c r="I25" s="33">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="J25" s="33">
-        <v>78.5</v>
-      </c>
-      <c r="K25" s="33">
-        <v>81.8</v>
-      </c>
-      <c r="L25" s="33">
-        <v>81.2</v>
-      </c>
-      <c r="M25" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="40">
-        <v>73.8</v>
-      </c>
-      <c r="C26" s="38">
-        <v>73</v>
-      </c>
-      <c r="D26" s="38">
-        <v>71.8</v>
-      </c>
-      <c r="E26" s="33">
-        <v>74.5</v>
-      </c>
-      <c r="F26" s="33">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="G26" s="33">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="H26" s="33">
-        <v>73.7</v>
-      </c>
-      <c r="I26" s="33">
-        <v>71.8</v>
-      </c>
-      <c r="J26" s="33">
-        <v>74</v>
-      </c>
-      <c r="K26" s="33">
-        <v>70.8</v>
-      </c>
-      <c r="L26" s="33">
-        <v>71.3</v>
-      </c>
-      <c r="M26" s="6">
-        <v>69.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="40">
-        <v>47.8</v>
-      </c>
-      <c r="C27" s="38">
-        <v>45.1</v>
-      </c>
-      <c r="D27" s="38">
-        <v>44.9</v>
-      </c>
-      <c r="E27" s="33">
-        <v>44.7</v>
-      </c>
-      <c r="F27" s="33">
-        <v>43.5</v>
-      </c>
-      <c r="G27" s="33">
-        <v>46.3</v>
-      </c>
-      <c r="H27" s="33">
-        <v>42.1</v>
-      </c>
-      <c r="I27" s="33">
-        <v>41.4</v>
-      </c>
-      <c r="J27" s="33">
-        <v>41.9</v>
-      </c>
-      <c r="K27" s="33">
-        <v>43.6</v>
-      </c>
-      <c r="L27" s="33">
-        <v>42.7</v>
-      </c>
-      <c r="M27" s="6">
-        <v>43.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="40">
-        <v>51</v>
-      </c>
-      <c r="C28" s="38">
-        <v>48</v>
-      </c>
-      <c r="D28" s="38">
-        <v>47</v>
-      </c>
-      <c r="E28" s="33">
-        <v>47.7</v>
-      </c>
-      <c r="F28" s="33">
-        <v>48.1</v>
-      </c>
-      <c r="G28" s="33">
-        <v>46.2</v>
-      </c>
-      <c r="H28" s="33">
-        <v>47.2</v>
-      </c>
-      <c r="I28" s="33">
-        <v>45.5</v>
-      </c>
-      <c r="J28" s="33">
-        <v>50.2</v>
-      </c>
-      <c r="K28" s="33">
-        <v>47.2</v>
-      </c>
-      <c r="L28" s="33">
-        <v>46.7</v>
-      </c>
-      <c r="M28" s="6">
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="40">
-        <v>59.2</v>
-      </c>
-      <c r="C29" s="38">
-        <v>58.7</v>
-      </c>
-      <c r="D29" s="38">
-        <v>58.2</v>
-      </c>
-      <c r="E29" s="33">
-        <v>57.3</v>
-      </c>
-      <c r="F29" s="33">
-        <v>57.1</v>
-      </c>
-      <c r="G29" s="33">
-        <v>55.2</v>
-      </c>
-      <c r="H29" s="33">
-        <v>54.6</v>
-      </c>
-      <c r="I29" s="33">
-        <v>56</v>
-      </c>
-      <c r="J29" s="33">
-        <v>54</v>
-      </c>
-      <c r="K29" s="33">
-        <v>55.5</v>
-      </c>
-      <c r="L29" s="33">
-        <v>54.5</v>
-      </c>
-      <c r="M29" s="6">
-        <v>53.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="40">
-        <v>55</v>
-      </c>
-      <c r="C30" s="38">
-        <v>50.9</v>
-      </c>
-      <c r="D30" s="38">
-        <v>51.3</v>
-      </c>
-      <c r="E30" s="33">
-        <v>51.2</v>
-      </c>
-      <c r="F30" s="33">
-        <v>50.2</v>
-      </c>
-      <c r="G30" s="33">
-        <v>50</v>
-      </c>
-      <c r="H30" s="33">
-        <v>50.7</v>
-      </c>
-      <c r="I30" s="33">
-        <v>50.6</v>
-      </c>
-      <c r="J30" s="33">
-        <v>45.8</v>
-      </c>
-      <c r="K30" s="33">
-        <v>48.7</v>
-      </c>
-      <c r="L30" s="33">
-        <v>46.4</v>
-      </c>
-      <c r="M30" s="6">
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="40">
-        <v>46.3</v>
-      </c>
-      <c r="C31" s="38">
-        <v>47</v>
-      </c>
-      <c r="D31" s="38">
-        <v>44</v>
-      </c>
-      <c r="E31" s="33">
-        <v>46.1</v>
-      </c>
-      <c r="F31" s="33">
-        <v>44.2</v>
-      </c>
-      <c r="G31" s="33">
-        <v>42.1</v>
-      </c>
-      <c r="H31" s="33">
-        <v>43</v>
-      </c>
-      <c r="I31" s="33">
-        <v>43.2</v>
-      </c>
-      <c r="J31" s="33">
-        <v>44.6</v>
-      </c>
-      <c r="K31" s="33">
-        <v>41.2</v>
-      </c>
-      <c r="L31" s="33">
-        <v>42.3</v>
-      </c>
-      <c r="M31" s="6">
-        <v>41.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="40">
-        <v>62.4</v>
-      </c>
-      <c r="C32" s="38">
-        <v>63.4</v>
-      </c>
-      <c r="D32" s="38">
-        <v>63.4</v>
-      </c>
-      <c r="E32" s="33">
-        <v>65</v>
-      </c>
-      <c r="F32" s="33">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="G32" s="33">
-        <v>68.5</v>
-      </c>
-      <c r="H32" s="33">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="I32" s="33">
-        <v>65.2</v>
-      </c>
-      <c r="J32" s="33">
-        <v>64.8</v>
-      </c>
-      <c r="K32" s="33">
-        <v>65.2</v>
-      </c>
-      <c r="L32" s="33">
-        <v>63.7</v>
-      </c>
-      <c r="M32" s="6">
-        <v>62.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="40">
-        <v>51.8</v>
-      </c>
-      <c r="C33" s="38">
-        <v>50</v>
-      </c>
-      <c r="D33" s="38">
-        <v>46.1</v>
-      </c>
-      <c r="E33" s="33">
-        <v>47.2</v>
-      </c>
-      <c r="F33" s="33">
-        <v>46.4</v>
-      </c>
-      <c r="G33" s="33">
-        <v>45.9</v>
-      </c>
-      <c r="H33" s="33">
-        <v>44.4</v>
-      </c>
-      <c r="I33" s="33">
-        <v>43.9</v>
-      </c>
-      <c r="J33" s="33">
-        <v>44.3</v>
-      </c>
-      <c r="K33" s="33">
-        <v>45.5</v>
-      </c>
-      <c r="L33" s="33">
-        <v>44.7</v>
-      </c>
-      <c r="M33" s="6">
-        <v>44.1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="40">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="C34" s="38">
-        <v>73</v>
-      </c>
-      <c r="D34" s="38">
-        <v>72</v>
-      </c>
-      <c r="E34" s="33">
-        <v>71</v>
-      </c>
-      <c r="F34" s="33">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="G34" s="33">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="H34" s="33">
-        <v>72.5</v>
-      </c>
-      <c r="I34" s="33">
-        <v>71.2</v>
-      </c>
-      <c r="J34" s="33">
-        <v>72</v>
-      </c>
-      <c r="K34" s="33">
-        <v>73.2</v>
-      </c>
-      <c r="L34" s="33">
-        <v>69.8</v>
-      </c>
-      <c r="M34" s="6">
-        <v>70.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="40">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="C35" s="38">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="D35" s="38">
-        <v>68.5</v>
-      </c>
-      <c r="E35" s="33">
-        <v>69</v>
-      </c>
-      <c r="F35" s="33">
-        <v>68.7</v>
-      </c>
-      <c r="G35" s="33">
-        <v>69.2</v>
-      </c>
-      <c r="H35" s="33">
-        <v>68.2</v>
-      </c>
-      <c r="I35" s="33">
-        <v>68.2</v>
-      </c>
-      <c r="J35" s="33">
-        <v>68.5</v>
-      </c>
-      <c r="K35" s="33">
-        <v>71.8</v>
-      </c>
-      <c r="L35" s="33">
-        <v>67.3</v>
-      </c>
-      <c r="M35" s="6">
-        <v>68.400000000000006</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="40">
-        <v>65.3</v>
-      </c>
-      <c r="C36" s="38">
-        <v>64.2</v>
-      </c>
-      <c r="D36" s="38">
-        <v>62.4</v>
-      </c>
-      <c r="E36" s="33">
-        <v>62.8</v>
-      </c>
-      <c r="F36" s="33">
-        <v>61.9</v>
-      </c>
-      <c r="G36" s="33">
-        <v>61.4</v>
-      </c>
-      <c r="H36" s="33">
+      <c r="L37" s="28">
         <v>61.6</v>
       </c>
-      <c r="I36" s="33">
-        <v>60.4</v>
-      </c>
-      <c r="J36" s="33">
-        <v>56.3</v>
-      </c>
-      <c r="K36" s="33">
-        <v>62.1</v>
-      </c>
-      <c r="L36" s="33">
-        <v>60.4</v>
-      </c>
-      <c r="M36" s="6">
+      <c r="M37" s="6">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="40">
-        <v>65.2</v>
-      </c>
-      <c r="C37" s="38">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="D37" s="38">
-        <v>66.3</v>
-      </c>
-      <c r="E37" s="33">
-        <v>64.7</v>
-      </c>
-      <c r="F37" s="33">
-        <v>62.3</v>
-      </c>
-      <c r="G37" s="33">
-        <v>61.4</v>
-      </c>
-      <c r="H37" s="33">
-        <v>61.1</v>
-      </c>
-      <c r="I37" s="33">
-        <v>61.8</v>
-      </c>
-      <c r="J37" s="33">
-        <v>61.7</v>
-      </c>
-      <c r="K37" s="33">
-        <v>60.7</v>
-      </c>
-      <c r="L37" s="33">
-        <v>62.4</v>
-      </c>
-      <c r="M37" s="6">
-        <v>60.3</v>
-      </c>
-    </row>
     <row r="38" spans="1:15" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B38" s="37">
         <v>59.6</v>
       </c>
       <c r="C38" s="26">
@@ -2897,13 +2866,13 @@
         <v>55.4</v>
       </c>
       <c r="K38" s="26">
-        <v>55.8</v>
+        <v>55.1</v>
       </c>
       <c r="L38" s="26">
-        <v>55.1</v>
+        <v>55.7</v>
       </c>
       <c r="M38" s="27">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2926,58 +2895,58 @@
       <c r="O39" s="16"/>
     </row>
     <row r="40" spans="1:15" s="12" customFormat="1" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="22"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
     </row>
     <row r="41" spans="1:15" s="13" customFormat="1" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="23"/>
       <c r="L41" s="23"/>
       <c r="M41" s="23"/>
       <c r="N41" s="17"/>
       <c r="O41" s="17"/>
     </row>
     <row r="42" spans="1:15" s="14" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="8"/>
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3017,10 +2986,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A41:J41"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="A42:K42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.79" right="0.79" top="0.98" bottom="0.98" header="0" footer="0"/>

--- a/Tabulados/tasa_infromalidad-entidad.xlsx
+++ b/Tabulados/tasa_infromalidad-entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488E9E1F-3901-4BDD-BF62-7FBA3530CED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF7F44F-7D9D-4EA5-AFE9-E367A3BABCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,13 +170,13 @@
     <t>Tasa de informalidad laboral por entidad federativa</t>
   </si>
   <si>
-    <t>IV trimestre 2012 - II trimestre 2023</t>
-  </si>
-  <si>
-    <t>II Trim</t>
-  </si>
-  <si>
-    <t>II trim</t>
+    <t>IV trimestre 2012 - III trimestre 2023</t>
+  </si>
+  <si>
+    <t>III Trim</t>
+  </si>
+  <si>
+    <t>III trim</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1560,7 +1560,7 @@
         <v>40.4</v>
       </c>
       <c r="M6" s="6">
-        <v>40.9</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1598,10 +1598,10 @@
         <v>36.6</v>
       </c>
       <c r="L7" s="28">
-        <v>39.5</v>
+        <v>37</v>
       </c>
       <c r="M7" s="6">
-        <v>37.5</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1639,10 +1639,10 @@
         <v>39.4</v>
       </c>
       <c r="L8" s="28">
-        <v>38.6</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="M8" s="6">
-        <v>37.700000000000003</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1683,7 +1683,7 @@
         <v>62.3</v>
       </c>
       <c r="M9" s="6">
-        <v>61.8</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1721,10 +1721,10 @@
         <v>34.200000000000003</v>
       </c>
       <c r="L10" s="28">
-        <v>35.4</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="M10" s="6">
-        <v>35</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1762,10 +1762,10 @@
         <v>46.9</v>
       </c>
       <c r="L11" s="28">
-        <v>49.1</v>
+        <v>48</v>
       </c>
       <c r="M11" s="6">
-        <v>48.2</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1803,10 +1803,10 @@
         <v>75.2</v>
       </c>
       <c r="L12" s="28">
-        <v>76.2</v>
+        <v>77.7</v>
       </c>
       <c r="M12" s="6">
-        <v>76</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1844,10 +1844,10 @@
         <v>36.799999999999997</v>
       </c>
       <c r="L13" s="28">
-        <v>36.6</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="M13" s="6">
-        <v>35.1</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1885,10 +1885,10 @@
         <v>45.8</v>
       </c>
       <c r="L14" s="28">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="M14" s="6">
-        <v>46.3</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1926,10 +1926,10 @@
         <v>49.5</v>
       </c>
       <c r="L15" s="28">
-        <v>50.2</v>
+        <v>52.6</v>
       </c>
       <c r="M15" s="6">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1967,10 +1967,10 @@
         <v>54.6</v>
       </c>
       <c r="L16" s="28">
-        <v>56.1</v>
+        <v>55.6</v>
       </c>
       <c r="M16" s="6">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2008,10 +2008,10 @@
         <v>79</v>
       </c>
       <c r="L17" s="28">
-        <v>79.7</v>
+        <v>79.3</v>
       </c>
       <c r="M17" s="6">
-        <v>78.099999999999994</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2049,10 +2049,10 @@
         <v>71.7</v>
       </c>
       <c r="L18" s="28">
-        <v>72.7</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="M18" s="6">
-        <v>71.7</v>
+        <v>73.099999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2090,10 +2090,10 @@
         <v>46.6</v>
       </c>
       <c r="L19" s="29">
-        <v>47.3</v>
+        <v>46.8</v>
       </c>
       <c r="M19" s="7">
-        <v>46.7</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2131,10 +2131,10 @@
         <v>56.8</v>
       </c>
       <c r="L20" s="28">
-        <v>56</v>
+        <v>56.7</v>
       </c>
       <c r="M20" s="6">
-        <v>56.3</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2172,10 +2172,10 @@
         <v>66.900000000000006</v>
       </c>
       <c r="L21" s="28">
-        <v>65.8</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="M21" s="6">
-        <v>67.2</v>
+        <v>67.099999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2213,10 +2213,10 @@
         <v>64.2</v>
       </c>
       <c r="L22" s="28">
-        <v>63.7</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="M22" s="6">
-        <v>64.900000000000006</v>
+        <v>65.599999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2254,10 +2254,10 @@
         <v>59.7</v>
       </c>
       <c r="L23" s="28">
-        <v>59.4</v>
+        <v>59.2</v>
       </c>
       <c r="M23" s="6">
-        <v>58.2</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2295,10 +2295,10 @@
         <v>35.799999999999997</v>
       </c>
       <c r="L24" s="28">
-        <v>37.700000000000003</v>
+        <v>36.4</v>
       </c>
       <c r="M24" s="6">
-        <v>36.1</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2336,10 +2336,10 @@
         <v>81.2</v>
       </c>
       <c r="L25" s="28">
-        <v>80.5</v>
+        <v>81.7</v>
       </c>
       <c r="M25" s="6">
-        <v>80.3</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2377,10 +2377,10 @@
         <v>71.3</v>
       </c>
       <c r="L26" s="28">
-        <v>72.8</v>
+        <v>70.2</v>
       </c>
       <c r="M26" s="6">
-        <v>70.400000000000006</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2418,10 +2418,10 @@
         <v>42.7</v>
       </c>
       <c r="L27" s="28">
-        <v>42.7</v>
+        <v>43.3</v>
       </c>
       <c r="M27" s="6">
-        <v>44</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2459,10 +2459,10 @@
         <v>46.7</v>
       </c>
       <c r="L28" s="28">
-        <v>47.4</v>
+        <v>46</v>
       </c>
       <c r="M28" s="6">
-        <v>46</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2500,10 +2500,10 @@
         <v>54.5</v>
       </c>
       <c r="L29" s="28">
-        <v>54.1</v>
+        <v>55</v>
       </c>
       <c r="M29" s="6">
-        <v>54.7</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2541,10 +2541,10 @@
         <v>46.4</v>
       </c>
       <c r="L30" s="28">
-        <v>49.3</v>
+        <v>48</v>
       </c>
       <c r="M30" s="6">
-        <v>48.3</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2582,10 +2582,10 @@
         <v>42.3</v>
       </c>
       <c r="L31" s="28">
-        <v>40.700000000000003</v>
+        <v>41.3</v>
       </c>
       <c r="M31" s="6">
-        <v>43.3</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2623,10 +2623,10 @@
         <v>63.7</v>
       </c>
       <c r="L32" s="28">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="M32" s="6">
-        <v>63.4</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2664,10 +2664,10 @@
         <v>44.7</v>
       </c>
       <c r="L33" s="28">
-        <v>45.7</v>
+        <v>45</v>
       </c>
       <c r="M33" s="6">
-        <v>44.9</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2705,10 +2705,10 @@
         <v>69.8</v>
       </c>
       <c r="L34" s="28">
-        <v>72.3</v>
+        <v>71.2</v>
       </c>
       <c r="M34" s="6">
-        <v>70.5</v>
+        <v>70.900000000000006</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2746,10 +2746,10 @@
         <v>67.3</v>
       </c>
       <c r="L35" s="28">
-        <v>67.5</v>
+        <v>67</v>
       </c>
       <c r="M35" s="6">
-        <v>69.599999999999994</v>
+        <v>66.599999999999994</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2787,10 +2787,10 @@
         <v>60.4</v>
       </c>
       <c r="L36" s="28">
-        <v>61.7</v>
+        <v>60.4</v>
       </c>
       <c r="M36" s="6">
-        <v>61.7</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2828,10 +2828,10 @@
         <v>62.4</v>
       </c>
       <c r="L37" s="28">
-        <v>61.6</v>
+        <v>62.1</v>
       </c>
       <c r="M37" s="6">
-        <v>61</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2869,10 +2869,10 @@
         <v>55.1</v>
       </c>
       <c r="L38" s="26">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="M38" s="27">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
